--- a/JPHealth/JPHealth/bin/Release/Template/07_テンプレート_作業票_yyyyMMdd.xlsx
+++ b/JPHealth/JPHealth/bin/Release/Template/07_テンプレート_作業票_yyyyMMdd.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\開発\MSiC\JP健診2017\20180717_新リーフレット追加\作業票テンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\infomage\JPHealth\JPHealth\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="作業票1 " sheetId="1" r:id="rId1"/>
@@ -4026,6 +4026,249 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4038,15 +4281,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4065,239 +4299,71 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4320,76 +4386,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4407,76 +4473,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4776,7 +4776,7 @@
   </sheetPr>
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:M1"/>
     </sheetView>
   </sheetViews>
@@ -4803,23 +4803,23 @@
       <c r="A1" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="208">
+      <c r="J1" s="168">
         <f>Sheet1!B13</f>
         <v>0</v>
       </c>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
       <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="208">
+      <c r="P1" s="168">
         <f>Sheet1!B14</f>
         <v>0</v>
       </c>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
       <c r="T1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4845,83 +4845,83 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174" t="s">
+      <c r="C5" s="158"/>
+      <c r="D5" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="174"/>
-      <c r="H5" s="190" t="s">
+      <c r="E5" s="158"/>
+      <c r="H5" s="187" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="191"/>
-      <c r="J5" s="191"/>
-      <c r="K5" s="192"/>
-      <c r="M5" s="190" t="s">
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="189"/>
+      <c r="M5" s="187" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="191"/>
-      <c r="O5" s="191"/>
-      <c r="P5" s="192"/>
-      <c r="Q5" s="187" t="s">
+      <c r="N5" s="188"/>
+      <c r="O5" s="188"/>
+      <c r="P5" s="189"/>
+      <c r="Q5" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="R5" s="187"/>
-      <c r="T5" s="175" t="s">
+      <c r="R5" s="171"/>
+      <c r="T5" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="U5" s="175"/>
+      <c r="U5" s="159"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="H6" s="212" t="s">
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="H6" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="213"/>
-      <c r="J6" s="213"/>
-      <c r="K6" s="214"/>
-      <c r="M6" s="178">
+      <c r="I6" s="174"/>
+      <c r="J6" s="174"/>
+      <c r="K6" s="175"/>
+      <c r="M6" s="182">
         <f>Sheet1!F10</f>
         <v>0</v>
       </c>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
       <c r="P6" s="47"/>
-      <c r="Q6" s="177">
+      <c r="Q6" s="186">
         <f>Sheet1!B16</f>
         <v>0</v>
       </c>
-      <c r="R6" s="177"/>
-      <c r="T6" s="176">
+      <c r="R6" s="186"/>
+      <c r="T6" s="213">
         <f>Sheet1!C10</f>
         <v>0</v>
       </c>
-      <c r="U6" s="176"/>
+      <c r="U6" s="213"/>
     </row>
     <row r="7" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="216"/>
-      <c r="J7" s="216"/>
-      <c r="K7" s="217"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="181"/>
-      <c r="O7" s="181"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="178"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
       <c r="P7" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="T7" s="176"/>
-      <c r="U7" s="176"/>
+      <c r="Q7" s="186"/>
+      <c r="R7" s="186"/>
+      <c r="T7" s="213"/>
+      <c r="U7" s="213"/>
     </row>
     <row r="8" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H8" s="5"/>
@@ -4930,101 +4930,101 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="158" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="H9" s="209" t="s">
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="H9" s="169" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="210"/>
-      <c r="J9" s="210"/>
-      <c r="K9" s="218"/>
-      <c r="M9" s="209" t="s">
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="179"/>
+      <c r="M9" s="169" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="210"/>
-      <c r="O9" s="210"/>
-      <c r="P9" s="210"/>
-      <c r="Q9" s="187" t="s">
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="187"/>
-      <c r="S9" s="211" t="s">
+      <c r="R9" s="171"/>
+      <c r="S9" s="172" t="s">
         <v>127</v>
       </c>
-      <c r="T9" s="211"/>
+      <c r="T9" s="172"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
-      <c r="B10" s="184" t="str">
+      <c r="B10" s="216" t="str">
         <f>Sheet1!B15</f>
         <v>.zip</v>
       </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="184"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="216"/>
       <c r="F10" s="51"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="212" t="s">
+      <c r="H10" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="213"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="214"/>
-      <c r="M10" s="178">
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="175"/>
+      <c r="M10" s="182">
         <f>Sheet1!H10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="179"/>
-      <c r="O10" s="179"/>
-      <c r="P10" s="188" t="s">
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="218" t="s">
         <v>120</v>
       </c>
-      <c r="Q10" s="177">
+      <c r="Q10" s="186">
         <f>Sheet1!B17</f>
         <v>0</v>
       </c>
-      <c r="R10" s="177"/>
-      <c r="S10" s="177">
+      <c r="R10" s="186"/>
+      <c r="S10" s="186">
         <f>Sheet1!B18</f>
         <v>0</v>
       </c>
-      <c r="T10" s="177"/>
+      <c r="T10" s="186"/>
     </row>
     <row r="11" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="184"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="H11" s="215"/>
-      <c r="I11" s="216"/>
-      <c r="J11" s="216"/>
-      <c r="K11" s="217"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="181"/>
-      <c r="O11" s="181"/>
-      <c r="P11" s="189"/>
-      <c r="Q11" s="177"/>
-      <c r="R11" s="177"/>
-      <c r="S11" s="177"/>
-      <c r="T11" s="177"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="216"/>
+      <c r="E11" s="216"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="178"/>
+      <c r="M11" s="184"/>
+      <c r="N11" s="185"/>
+      <c r="O11" s="185"/>
+      <c r="P11" s="219"/>
+      <c r="Q11" s="186"/>
+      <c r="R11" s="186"/>
+      <c r="S11" s="186"/>
+      <c r="T11" s="186"/>
     </row>
     <row r="12" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>133</v>
       </c>
-      <c r="M12" s="178">
+      <c r="M12" s="182">
         <f>Sheet1!G10</f>
         <v>0</v>
       </c>
-      <c r="N12" s="179"/>
-      <c r="O12" s="179"/>
-      <c r="P12" s="182" t="s">
+      <c r="N12" s="183"/>
+      <c r="O12" s="183"/>
+      <c r="P12" s="214" t="s">
         <v>121</v>
       </c>
       <c r="Q12" s="48" t="s">
@@ -5037,10 +5037,10 @@
       <c r="B13" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="M13" s="180"/>
-      <c r="N13" s="181"/>
-      <c r="O13" s="181"/>
-      <c r="P13" s="183"/>
+      <c r="M13" s="184"/>
+      <c r="N13" s="185"/>
+      <c r="O13" s="185"/>
+      <c r="P13" s="215"/>
       <c r="Q13" s="48" t="s">
         <v>143</v>
       </c>
@@ -5100,13 +5100,13 @@
       <c r="N17" s="49"/>
       <c r="O17" s="49"/>
       <c r="P17" s="50"/>
-      <c r="Q17" s="219" t="s">
+      <c r="Q17" s="190" t="s">
         <v>294</v>
       </c>
-      <c r="R17" s="219"/>
-      <c r="S17" s="220"/>
-      <c r="T17" s="167"/>
-      <c r="U17" s="167"/>
+      <c r="R17" s="190"/>
+      <c r="S17" s="191"/>
+      <c r="T17" s="146"/>
+      <c r="U17" s="146"/>
     </row>
     <row r="18" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
@@ -5120,22 +5120,22 @@
       <c r="N18" s="49"/>
       <c r="O18" s="49"/>
       <c r="P18" s="50"/>
-      <c r="Q18" s="219"/>
-      <c r="R18" s="219"/>
-      <c r="S18" s="220"/>
-      <c r="T18" s="167"/>
-      <c r="U18" s="167"/>
+      <c r="Q18" s="190"/>
+      <c r="R18" s="190"/>
+      <c r="S18" s="191"/>
+      <c r="T18" s="146"/>
+      <c r="U18" s="146"/>
     </row>
     <row r="19" spans="1:21" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
-      <c r="Q19" s="221"/>
-      <c r="R19" s="221"/>
-      <c r="S19" s="222"/>
-      <c r="T19" s="167"/>
-      <c r="U19" s="167"/>
+      <c r="Q19" s="192"/>
+      <c r="R19" s="192"/>
+      <c r="S19" s="193"/>
+      <c r="T19" s="146"/>
+      <c r="U19" s="146"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
@@ -5164,53 +5164,53 @@
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
-      <c r="B21" s="186" t="s">
+      <c r="B21" s="148" t="s">
         <v>271</v>
       </c>
-      <c r="C21" s="186"/>
-      <c r="D21" s="172" t="s">
+      <c r="C21" s="148"/>
+      <c r="D21" s="208" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="195" t="s">
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="196"/>
-      <c r="I21" s="197" t="s">
+      <c r="H21" s="195"/>
+      <c r="I21" s="196" t="s">
         <v>267</v>
       </c>
-      <c r="J21" s="198"/>
-      <c r="K21" s="199" t="s">
+      <c r="J21" s="197"/>
+      <c r="K21" s="198" t="s">
         <v>268</v>
       </c>
-      <c r="L21" s="200"/>
-      <c r="M21" s="193" t="s">
+      <c r="L21" s="199"/>
+      <c r="M21" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="N21" s="194"/>
-      <c r="O21" s="186" t="s">
+      <c r="N21" s="181"/>
+      <c r="O21" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="P21" s="186"/>
-      <c r="Q21" s="186"/>
-      <c r="R21" s="186"/>
-      <c r="S21" s="186"/>
-      <c r="T21" s="186"/>
-      <c r="U21" s="186"/>
+      <c r="P21" s="148"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="148"/>
+      <c r="T21" s="148"/>
+      <c r="U21" s="148"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
-      <c r="B22" s="202">
+      <c r="B22" s="207">
         <f>SUM(Sheet1!B16:B17)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="202"/>
-      <c r="D22" s="203" t="s">
+      <c r="C22" s="207"/>
+      <c r="D22" s="210" t="s">
         <v>270</v>
       </c>
-      <c r="E22" s="204"/>
-      <c r="F22" s="205"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="212"/>
       <c r="G22" s="144" t="s">
         <v>22</v>
       </c>
@@ -5249,84 +5249,84 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
-      <c r="B25" s="174" t="s">
+      <c r="B25" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="174" t="s">
+      <c r="C25" s="158"/>
+      <c r="D25" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="174"/>
-      <c r="F25" s="175" t="s">
+      <c r="E25" s="158"/>
+      <c r="F25" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="175"/>
-      <c r="I25" s="174" t="s">
+      <c r="G25" s="159"/>
+      <c r="I25" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="174"/>
-      <c r="K25" s="174" t="s">
+      <c r="J25" s="158"/>
+      <c r="K25" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="174"/>
-      <c r="M25" s="175" t="s">
+      <c r="L25" s="158"/>
+      <c r="M25" s="159" t="s">
         <v>145</v>
       </c>
-      <c r="N25" s="175"/>
-      <c r="P25" s="186" t="s">
+      <c r="N25" s="159"/>
+      <c r="P25" s="148" t="s">
         <v>170</v>
       </c>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="186"/>
-      <c r="S25" s="186"/>
+      <c r="Q25" s="148"/>
+      <c r="R25" s="148"/>
+      <c r="S25" s="148"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
-      <c r="B26" s="167"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="167"/>
-      <c r="L26" s="167"/>
-      <c r="M26" s="167"/>
-      <c r="N26" s="167"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="146"/>
       <c r="P26" s="144" t="s">
         <v>168</v>
       </c>
       <c r="Q26" s="144"/>
-      <c r="R26" s="185">
+      <c r="R26" s="217">
         <f>SUM(作業票2!Q39:R42)</f>
         <v>0</v>
       </c>
-      <c r="S26" s="185"/>
+      <c r="S26" s="217"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="167"/>
-      <c r="L27" s="167"/>
-      <c r="M27" s="167"/>
-      <c r="N27" s="167"/>
-      <c r="P27" s="167" t="s">
+      <c r="B27" s="146"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
+      <c r="P27" s="146" t="s">
         <v>169</v>
       </c>
-      <c r="Q27" s="167"/>
-      <c r="R27" s="185">
+      <c r="Q27" s="146"/>
+      <c r="R27" s="217">
         <f>SUM(作業票2!Q43:R46)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="185"/>
+      <c r="S27" s="217"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -5365,101 +5365,101 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174" t="s">
+      <c r="C34" s="158"/>
+      <c r="D34" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="174"/>
-      <c r="G34" s="187" t="s">
+      <c r="E34" s="158"/>
+      <c r="G34" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="H34" s="187"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="187"/>
-      <c r="K34" s="187"/>
-      <c r="L34" s="187"/>
-      <c r="M34" s="187"/>
-      <c r="N34" s="187"/>
-      <c r="O34" s="187"/>
-      <c r="P34" s="172" t="s">
+      <c r="H34" s="171"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="171"/>
+      <c r="K34" s="171"/>
+      <c r="L34" s="171"/>
+      <c r="M34" s="171"/>
+      <c r="N34" s="171"/>
+      <c r="O34" s="171"/>
+      <c r="P34" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="Q34" s="173"/>
-      <c r="R34" s="173"/>
-      <c r="S34" s="173"/>
-      <c r="T34" s="186" t="s">
+      <c r="Q34" s="209"/>
+      <c r="R34" s="209"/>
+      <c r="S34" s="209"/>
+      <c r="T34" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="U34" s="186"/>
+      <c r="U34" s="148"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="G35" s="186" t="s">
+      <c r="B35" s="146"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="G35" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="H35" s="186"/>
-      <c r="I35" s="201" t="s">
+      <c r="H35" s="148"/>
+      <c r="I35" s="206" t="s">
         <v>155</v>
       </c>
-      <c r="J35" s="201"/>
-      <c r="K35" s="186" t="s">
+      <c r="J35" s="206"/>
+      <c r="K35" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="L35" s="186"/>
+      <c r="L35" s="148"/>
       <c r="M35" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N35" s="193" t="s">
+      <c r="N35" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="O35" s="194"/>
-      <c r="P35" s="206" t="s">
+      <c r="O35" s="181"/>
+      <c r="P35" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="Q35" s="207"/>
-      <c r="R35" s="207"/>
-      <c r="S35" s="207"/>
-      <c r="T35" s="223">
+      <c r="Q35" s="167"/>
+      <c r="R35" s="167"/>
+      <c r="S35" s="167"/>
+      <c r="T35" s="162">
         <f>COUNTA(Sheet1!A2:A9)</f>
         <v>0</v>
       </c>
-      <c r="U35" s="224"/>
+      <c r="U35" s="163"/>
     </row>
     <row r="36" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
+      <c r="B36" s="146"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
       <c r="G36" s="144" t="s">
         <v>102</v>
       </c>
       <c r="H36" s="144"/>
-      <c r="I36" s="167"/>
-      <c r="J36" s="167"/>
-      <c r="K36" s="164"/>
-      <c r="L36" s="165"/>
-      <c r="M36" s="168"/>
-      <c r="N36" s="163"/>
-      <c r="O36" s="165"/>
-      <c r="P36" s="206" t="s">
+      <c r="I36" s="146"/>
+      <c r="J36" s="146"/>
+      <c r="K36" s="204"/>
+      <c r="L36" s="201"/>
+      <c r="M36" s="160"/>
+      <c r="N36" s="200"/>
+      <c r="O36" s="201"/>
+      <c r="P36" s="166" t="s">
         <v>98</v>
       </c>
-      <c r="Q36" s="207"/>
-      <c r="R36" s="207"/>
-      <c r="S36" s="207"/>
-      <c r="T36" s="223">
+      <c r="Q36" s="167"/>
+      <c r="R36" s="167"/>
+      <c r="S36" s="167"/>
+      <c r="T36" s="162">
         <f>Sheet1!D10</f>
         <v>0</v>
       </c>
-      <c r="U36" s="224"/>
+      <c r="U36" s="163"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B37" s="16" t="s">
@@ -5468,24 +5468,24 @@
       <c r="C37" s="17"/>
       <c r="G37" s="144"/>
       <c r="H37" s="144"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="167"/>
-      <c r="K37" s="162"/>
-      <c r="L37" s="166"/>
-      <c r="M37" s="169"/>
-      <c r="N37" s="161"/>
-      <c r="O37" s="166"/>
-      <c r="P37" s="206" t="s">
+      <c r="I37" s="146"/>
+      <c r="J37" s="146"/>
+      <c r="K37" s="205"/>
+      <c r="L37" s="203"/>
+      <c r="M37" s="161"/>
+      <c r="N37" s="202"/>
+      <c r="O37" s="203"/>
+      <c r="P37" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="Q37" s="207"/>
-      <c r="R37" s="207"/>
-      <c r="S37" s="207"/>
-      <c r="T37" s="223">
+      <c r="Q37" s="167"/>
+      <c r="R37" s="167"/>
+      <c r="S37" s="167"/>
+      <c r="T37" s="162">
         <f>Sheet1!E10</f>
         <v>0</v>
       </c>
-      <c r="U37" s="224"/>
+      <c r="U37" s="163"/>
     </row>
     <row r="38" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
@@ -5497,24 +5497,24 @@
         <v>105</v>
       </c>
       <c r="H38" s="144"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="167"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="165"/>
-      <c r="M38" s="168"/>
-      <c r="N38" s="163"/>
-      <c r="O38" s="165"/>
-      <c r="P38" s="170" t="s">
+      <c r="I38" s="146"/>
+      <c r="J38" s="146"/>
+      <c r="K38" s="204"/>
+      <c r="L38" s="201"/>
+      <c r="M38" s="160"/>
+      <c r="N38" s="200"/>
+      <c r="O38" s="201"/>
+      <c r="P38" s="224" t="s">
         <v>99</v>
       </c>
-      <c r="Q38" s="171"/>
-      <c r="R38" s="171"/>
-      <c r="S38" s="171"/>
-      <c r="T38" s="223">
+      <c r="Q38" s="225"/>
+      <c r="R38" s="225"/>
+      <c r="S38" s="225"/>
+      <c r="T38" s="162">
         <f>Sheet1!F10</f>
         <v>0</v>
       </c>
-      <c r="U38" s="224"/>
+      <c r="U38" s="163"/>
     </row>
     <row r="39" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
@@ -5524,24 +5524,24 @@
       <c r="C39" s="17"/>
       <c r="G39" s="144"/>
       <c r="H39" s="144"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="167"/>
-      <c r="K39" s="162"/>
-      <c r="L39" s="166"/>
-      <c r="M39" s="169"/>
-      <c r="N39" s="161"/>
-      <c r="O39" s="166"/>
-      <c r="P39" s="170" t="s">
+      <c r="I39" s="146"/>
+      <c r="J39" s="146"/>
+      <c r="K39" s="205"/>
+      <c r="L39" s="203"/>
+      <c r="M39" s="161"/>
+      <c r="N39" s="202"/>
+      <c r="O39" s="203"/>
+      <c r="P39" s="224" t="s">
         <v>100</v>
       </c>
-      <c r="Q39" s="171"/>
-      <c r="R39" s="171"/>
-      <c r="S39" s="171"/>
-      <c r="T39" s="223">
+      <c r="Q39" s="225"/>
+      <c r="R39" s="225"/>
+      <c r="S39" s="225"/>
+      <c r="T39" s="162">
         <f>Sheet1!H10</f>
         <v>0</v>
       </c>
-      <c r="U39" s="224"/>
+      <c r="U39" s="163"/>
     </row>
     <row r="40" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
@@ -5553,22 +5553,22 @@
         <v>103</v>
       </c>
       <c r="H40" s="144"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="164"/>
-      <c r="L40" s="165"/>
-      <c r="M40" s="168"/>
-      <c r="N40" s="163"/>
-      <c r="O40" s="165"/>
-      <c r="R40" s="158" t="s">
+      <c r="I40" s="146"/>
+      <c r="J40" s="146"/>
+      <c r="K40" s="204"/>
+      <c r="L40" s="201"/>
+      <c r="M40" s="160"/>
+      <c r="N40" s="200"/>
+      <c r="O40" s="201"/>
+      <c r="R40" s="164" t="s">
         <v>96</v>
       </c>
-      <c r="S40" s="160"/>
-      <c r="T40" s="223">
+      <c r="S40" s="165"/>
+      <c r="T40" s="162">
         <f>SUM(Sheet1!D10:F10,Sheet1!H10)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="224"/>
+      <c r="U40" s="163"/>
     </row>
     <row r="41" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
@@ -5578,13 +5578,13 @@
       <c r="C41" s="17"/>
       <c r="G41" s="144"/>
       <c r="H41" s="144"/>
-      <c r="I41" s="167"/>
-      <c r="J41" s="167"/>
-      <c r="K41" s="162"/>
-      <c r="L41" s="166"/>
-      <c r="M41" s="169"/>
-      <c r="N41" s="161"/>
-      <c r="O41" s="166"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="146"/>
+      <c r="K41" s="205"/>
+      <c r="L41" s="203"/>
+      <c r="M41" s="161"/>
+      <c r="N41" s="202"/>
+      <c r="O41" s="203"/>
       <c r="T41" s="81"/>
       <c r="U41" s="81"/>
     </row>
@@ -5601,11 +5601,11 @@
         <v>116</v>
       </c>
       <c r="S42" s="144"/>
-      <c r="T42" s="228">
+      <c r="T42" s="152">
         <f>SUM(T36:U38)</f>
         <v>0</v>
       </c>
-      <c r="U42" s="228"/>
+      <c r="U42" s="152"/>
     </row>
     <row r="43" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
@@ -5620,11 +5620,11 @@
         <v>117</v>
       </c>
       <c r="S43" s="144"/>
-      <c r="T43" s="228">
+      <c r="T43" s="152">
         <f>SUM(T39)</f>
         <v>0</v>
       </c>
-      <c r="U43" s="228"/>
+      <c r="U43" s="152"/>
     </row>
     <row r="44" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
@@ -5638,72 +5638,72 @@
     </row>
     <row r="45" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
-      <c r="B45" s="235" t="s">
+      <c r="B45" s="147" t="s">
         <v>286</v>
       </c>
-      <c r="C45" s="235"/>
-      <c r="D45" s="231" t="s">
+      <c r="C45" s="147"/>
+      <c r="D45" s="155" t="s">
         <v>273</v>
       </c>
-      <c r="E45" s="232"/>
-      <c r="F45" s="232"/>
-      <c r="G45" s="233"/>
-      <c r="H45" s="186" t="s">
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="148" t="s">
         <v>283</v>
       </c>
-      <c r="I45" s="186"/>
-      <c r="J45" s="186"/>
-      <c r="K45" s="186" t="s">
+      <c r="I45" s="148"/>
+      <c r="J45" s="148"/>
+      <c r="K45" s="148" t="s">
         <v>280</v>
       </c>
-      <c r="L45" s="186"/>
-      <c r="M45" s="186" t="s">
+      <c r="L45" s="148"/>
+      <c r="M45" s="148" t="s">
         <v>272</v>
       </c>
-      <c r="N45" s="186"/>
-      <c r="O45" s="186" t="s">
+      <c r="N45" s="148"/>
+      <c r="O45" s="148" t="s">
         <v>287</v>
       </c>
-      <c r="P45" s="186"/>
-      <c r="Q45" s="186" t="s">
+      <c r="P45" s="148"/>
+      <c r="Q45" s="148" t="s">
         <v>289</v>
       </c>
-      <c r="R45" s="186"/>
-      <c r="S45" s="186"/>
+      <c r="R45" s="148"/>
+      <c r="S45" s="148"/>
       <c r="V45" s="15"/>
     </row>
     <row r="46" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
-      <c r="B46" s="235" t="s">
+      <c r="B46" s="147" t="s">
         <v>274</v>
       </c>
-      <c r="C46" s="235"/>
-      <c r="D46" s="234">
+      <c r="C46" s="147"/>
+      <c r="D46" s="145">
         <f>Sheet1!B13</f>
         <v>0</v>
       </c>
-      <c r="E46" s="234"/>
-      <c r="F46" s="234"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
       <c r="G46" s="140" t="s">
         <v>279</v>
       </c>
-      <c r="H46" s="167" t="s">
+      <c r="H46" s="146" t="s">
         <v>276</v>
       </c>
-      <c r="I46" s="167"/>
-      <c r="J46" s="167"/>
-      <c r="K46" s="167" t="s">
+      <c r="I46" s="146"/>
+      <c r="J46" s="146"/>
+      <c r="K46" s="146" t="s">
         <v>281</v>
       </c>
-      <c r="L46" s="167"/>
-      <c r="M46" s="167" t="s">
+      <c r="L46" s="146"/>
+      <c r="M46" s="146" t="s">
         <v>285</v>
       </c>
-      <c r="N46" s="167"/>
-      <c r="O46" s="167" t="s">
+      <c r="N46" s="146"/>
+      <c r="O46" s="146" t="s">
         <v>278</v>
       </c>
-      <c r="P46" s="167"/>
+      <c r="P46" s="146"/>
       <c r="Q46" s="144" t="s">
         <v>290</v>
       </c>
@@ -5713,39 +5713,39 @@
     </row>
     <row r="47" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
-      <c r="B47" s="235" t="s">
+      <c r="B47" s="147" t="s">
         <v>275</v>
       </c>
-      <c r="C47" s="235"/>
-      <c r="D47" s="234">
+      <c r="C47" s="147"/>
+      <c r="D47" s="145">
         <f>Sheet1!B13</f>
         <v>0</v>
       </c>
-      <c r="E47" s="234"/>
-      <c r="F47" s="234"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
       <c r="G47" s="140" t="s">
         <v>279</v>
       </c>
-      <c r="H47" s="167" t="s">
+      <c r="H47" s="146" t="s">
         <v>277</v>
       </c>
-      <c r="I47" s="167"/>
-      <c r="J47" s="167"/>
-      <c r="K47" s="167" t="s">
+      <c r="I47" s="146"/>
+      <c r="J47" s="146"/>
+      <c r="K47" s="146" t="s">
         <v>282</v>
       </c>
-      <c r="L47" s="167"/>
-      <c r="M47" s="167" t="s">
+      <c r="L47" s="146"/>
+      <c r="M47" s="146" t="s">
         <v>284</v>
       </c>
-      <c r="N47" s="167"/>
-      <c r="O47" s="229" t="s">
+      <c r="N47" s="146"/>
+      <c r="O47" s="153" t="s">
         <v>288</v>
       </c>
       <c r="P47" s="144"/>
-      <c r="Q47" s="230"/>
-      <c r="R47" s="230"/>
-      <c r="S47" s="230"/>
+      <c r="Q47" s="154"/>
+      <c r="R47" s="154"/>
+      <c r="S47" s="154"/>
       <c r="V47" s="15"/>
     </row>
     <row r="48" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5773,68 +5773,68 @@
       <c r="O49" s="39"/>
       <c r="P49" s="39"/>
       <c r="Q49" s="39"/>
-      <c r="R49" s="152" t="s">
+      <c r="R49" s="230" t="s">
         <v>140</v>
       </c>
-      <c r="S49" s="154" t="s">
+      <c r="S49" s="232" t="s">
         <v>139</v>
       </c>
-      <c r="T49" s="155"/>
+      <c r="T49" s="233"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
       <c r="B50" s="28"/>
-      <c r="C50" s="227" t="s">
+      <c r="C50" s="151" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="227"/>
-      <c r="E50" s="227"/>
-      <c r="F50" s="227"/>
-      <c r="G50" s="227"/>
-      <c r="H50" s="145" t="s">
+      <c r="D50" s="151"/>
+      <c r="E50" s="151"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="226" t="s">
         <v>157</v>
       </c>
-      <c r="I50" s="146"/>
+      <c r="I50" s="227"/>
       <c r="J50" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="K50" s="149" t="s">
+      <c r="K50" s="221" t="s">
         <v>265</v>
       </c>
-      <c r="L50" s="150"/>
-      <c r="M50" s="151"/>
-      <c r="N50" s="149" t="s">
+      <c r="L50" s="222"/>
+      <c r="M50" s="223"/>
+      <c r="N50" s="221" t="s">
         <v>266</v>
       </c>
-      <c r="O50" s="150"/>
-      <c r="P50" s="150"/>
-      <c r="Q50" s="151"/>
-      <c r="R50" s="153"/>
-      <c r="S50" s="156"/>
-      <c r="T50" s="157"/>
+      <c r="O50" s="222"/>
+      <c r="P50" s="222"/>
+      <c r="Q50" s="223"/>
+      <c r="R50" s="231"/>
+      <c r="S50" s="234"/>
+      <c r="T50" s="235"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
       <c r="B51" s="9">
         <v>1</v>
       </c>
-      <c r="C51" s="225" t="s">
+      <c r="C51" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="D51" s="226"/>
-      <c r="E51" s="226"/>
-      <c r="F51" s="226"/>
-      <c r="G51" s="226"/>
-      <c r="H51" s="147"/>
-      <c r="I51" s="148"/>
+      <c r="D51" s="150"/>
+      <c r="E51" s="150"/>
+      <c r="F51" s="150"/>
+      <c r="G51" s="150"/>
+      <c r="H51" s="228"/>
+      <c r="I51" s="229"/>
       <c r="J51" s="41"/>
-      <c r="K51" s="158"/>
-      <c r="L51" s="159"/>
-      <c r="M51" s="160"/>
-      <c r="N51" s="158"/>
-      <c r="O51" s="159"/>
-      <c r="P51" s="159"/>
-      <c r="Q51" s="160"/>
+      <c r="K51" s="164"/>
+      <c r="L51" s="220"/>
+      <c r="M51" s="165"/>
+      <c r="N51" s="164"/>
+      <c r="O51" s="220"/>
+      <c r="P51" s="220"/>
+      <c r="Q51" s="165"/>
       <c r="R51" s="41"/>
       <c r="S51" s="41"/>
       <c r="T51" s="41"/>
@@ -5844,23 +5844,23 @@
       <c r="B52" s="9">
         <v>2</v>
       </c>
-      <c r="C52" s="225" t="s">
+      <c r="C52" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="D52" s="226"/>
-      <c r="E52" s="226"/>
-      <c r="F52" s="226"/>
-      <c r="G52" s="226"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="148"/>
+      <c r="D52" s="150"/>
+      <c r="E52" s="150"/>
+      <c r="F52" s="150"/>
+      <c r="G52" s="150"/>
+      <c r="H52" s="228"/>
+      <c r="I52" s="229"/>
       <c r="J52" s="41"/>
-      <c r="K52" s="158"/>
-      <c r="L52" s="159"/>
-      <c r="M52" s="160"/>
-      <c r="N52" s="158"/>
-      <c r="O52" s="159"/>
-      <c r="P52" s="159"/>
-      <c r="Q52" s="160"/>
+      <c r="K52" s="164"/>
+      <c r="L52" s="220"/>
+      <c r="M52" s="165"/>
+      <c r="N52" s="164"/>
+      <c r="O52" s="220"/>
+      <c r="P52" s="220"/>
+      <c r="Q52" s="165"/>
       <c r="R52" s="41"/>
       <c r="S52" s="41"/>
       <c r="T52" s="41"/>
@@ -5870,23 +5870,23 @@
       <c r="B53" s="9">
         <v>3</v>
       </c>
-      <c r="C53" s="225" t="s">
+      <c r="C53" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="D53" s="226"/>
-      <c r="E53" s="226"/>
-      <c r="F53" s="226"/>
-      <c r="G53" s="226"/>
-      <c r="H53" s="147"/>
-      <c r="I53" s="148"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="150"/>
+      <c r="F53" s="150"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="228"/>
+      <c r="I53" s="229"/>
       <c r="J53" s="41"/>
-      <c r="K53" s="158"/>
-      <c r="L53" s="159"/>
-      <c r="M53" s="160"/>
-      <c r="N53" s="158"/>
-      <c r="O53" s="159"/>
-      <c r="P53" s="159"/>
-      <c r="Q53" s="160"/>
+      <c r="K53" s="164"/>
+      <c r="L53" s="220"/>
+      <c r="M53" s="165"/>
+      <c r="N53" s="164"/>
+      <c r="O53" s="220"/>
+      <c r="P53" s="220"/>
+      <c r="Q53" s="165"/>
       <c r="R53" s="41"/>
       <c r="S53" s="41"/>
       <c r="T53" s="41"/>
@@ -5896,23 +5896,23 @@
       <c r="B54" s="9">
         <v>4</v>
       </c>
-      <c r="C54" s="225" t="s">
+      <c r="C54" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="D54" s="226"/>
-      <c r="E54" s="226"/>
-      <c r="F54" s="226"/>
-      <c r="G54" s="226"/>
-      <c r="H54" s="147"/>
-      <c r="I54" s="148"/>
+      <c r="D54" s="150"/>
+      <c r="E54" s="150"/>
+      <c r="F54" s="150"/>
+      <c r="G54" s="150"/>
+      <c r="H54" s="228"/>
+      <c r="I54" s="229"/>
       <c r="J54" s="41"/>
-      <c r="K54" s="158"/>
-      <c r="L54" s="159"/>
-      <c r="M54" s="160"/>
-      <c r="N54" s="158"/>
-      <c r="O54" s="159"/>
-      <c r="P54" s="159"/>
-      <c r="Q54" s="160"/>
+      <c r="K54" s="164"/>
+      <c r="L54" s="220"/>
+      <c r="M54" s="165"/>
+      <c r="N54" s="164"/>
+      <c r="O54" s="220"/>
+      <c r="P54" s="220"/>
+      <c r="Q54" s="165"/>
       <c r="R54" s="41"/>
       <c r="S54" s="41"/>
       <c r="T54" s="41"/>
@@ -5922,23 +5922,23 @@
       <c r="B55" s="9">
         <v>5</v>
       </c>
-      <c r="C55" s="225" t="s">
+      <c r="C55" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="D55" s="226"/>
-      <c r="E55" s="226"/>
-      <c r="F55" s="226"/>
-      <c r="G55" s="226"/>
-      <c r="H55" s="147"/>
-      <c r="I55" s="148"/>
+      <c r="D55" s="150"/>
+      <c r="E55" s="150"/>
+      <c r="F55" s="150"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="228"/>
+      <c r="I55" s="229"/>
       <c r="J55" s="41"/>
-      <c r="K55" s="158"/>
-      <c r="L55" s="159"/>
-      <c r="M55" s="160"/>
-      <c r="N55" s="158"/>
-      <c r="O55" s="159"/>
-      <c r="P55" s="159"/>
-      <c r="Q55" s="160"/>
+      <c r="K55" s="164"/>
+      <c r="L55" s="220"/>
+      <c r="M55" s="165"/>
+      <c r="N55" s="164"/>
+      <c r="O55" s="220"/>
+      <c r="P55" s="220"/>
+      <c r="Q55" s="165"/>
       <c r="R55" s="41"/>
       <c r="S55" s="41"/>
       <c r="T55" s="41"/>
@@ -5948,23 +5948,23 @@
       <c r="B56" s="9">
         <v>6</v>
       </c>
-      <c r="C56" s="225" t="s">
+      <c r="C56" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="226"/>
-      <c r="E56" s="226"/>
-      <c r="F56" s="226"/>
-      <c r="G56" s="226"/>
-      <c r="H56" s="147"/>
-      <c r="I56" s="148"/>
+      <c r="D56" s="150"/>
+      <c r="E56" s="150"/>
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="228"/>
+      <c r="I56" s="229"/>
       <c r="J56" s="41"/>
-      <c r="K56" s="158"/>
-      <c r="L56" s="159"/>
-      <c r="M56" s="160"/>
-      <c r="N56" s="158"/>
-      <c r="O56" s="159"/>
-      <c r="P56" s="159"/>
-      <c r="Q56" s="160"/>
+      <c r="K56" s="164"/>
+      <c r="L56" s="220"/>
+      <c r="M56" s="165"/>
+      <c r="N56" s="164"/>
+      <c r="O56" s="220"/>
+      <c r="P56" s="220"/>
+      <c r="Q56" s="165"/>
       <c r="R56" s="41"/>
       <c r="S56" s="41"/>
       <c r="T56" s="41"/>
@@ -5974,23 +5974,23 @@
       <c r="B57" s="9">
         <v>7</v>
       </c>
-      <c r="C57" s="225" t="s">
+      <c r="C57" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="226"/>
-      <c r="E57" s="226"/>
-      <c r="F57" s="226"/>
-      <c r="G57" s="226"/>
-      <c r="H57" s="147"/>
-      <c r="I57" s="148"/>
+      <c r="D57" s="150"/>
+      <c r="E57" s="150"/>
+      <c r="F57" s="150"/>
+      <c r="G57" s="150"/>
+      <c r="H57" s="228"/>
+      <c r="I57" s="229"/>
       <c r="J57" s="41"/>
-      <c r="K57" s="158"/>
-      <c r="L57" s="159"/>
-      <c r="M57" s="160"/>
-      <c r="N57" s="158"/>
-      <c r="O57" s="159"/>
-      <c r="P57" s="159"/>
-      <c r="Q57" s="160"/>
+      <c r="K57" s="164"/>
+      <c r="L57" s="220"/>
+      <c r="M57" s="165"/>
+      <c r="N57" s="164"/>
+      <c r="O57" s="220"/>
+      <c r="P57" s="220"/>
+      <c r="Q57" s="165"/>
       <c r="R57" s="41"/>
       <c r="S57" s="41"/>
       <c r="T57" s="41"/>
@@ -6000,23 +6000,23 @@
       <c r="B58" s="9">
         <v>8</v>
       </c>
-      <c r="C58" s="225" t="s">
+      <c r="C58" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="D58" s="226"/>
-      <c r="E58" s="226"/>
-      <c r="F58" s="226"/>
-      <c r="G58" s="226"/>
-      <c r="H58" s="147"/>
-      <c r="I58" s="148"/>
+      <c r="D58" s="150"/>
+      <c r="E58" s="150"/>
+      <c r="F58" s="150"/>
+      <c r="G58" s="150"/>
+      <c r="H58" s="228"/>
+      <c r="I58" s="229"/>
       <c r="J58" s="41"/>
-      <c r="K58" s="158"/>
-      <c r="L58" s="159"/>
-      <c r="M58" s="160"/>
-      <c r="N58" s="158"/>
-      <c r="O58" s="159"/>
-      <c r="P58" s="159"/>
-      <c r="Q58" s="160"/>
+      <c r="K58" s="164"/>
+      <c r="L58" s="220"/>
+      <c r="M58" s="165"/>
+      <c r="N58" s="164"/>
+      <c r="O58" s="220"/>
+      <c r="P58" s="220"/>
+      <c r="Q58" s="165"/>
       <c r="R58" s="41"/>
       <c r="S58" s="41"/>
       <c r="T58" s="41"/>
@@ -6026,23 +6026,23 @@
       <c r="B59" s="9">
         <v>9</v>
       </c>
-      <c r="C59" s="225" t="s">
+      <c r="C59" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="226"/>
-      <c r="E59" s="226"/>
-      <c r="F59" s="226"/>
-      <c r="G59" s="226"/>
-      <c r="H59" s="147"/>
-      <c r="I59" s="148"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="150"/>
+      <c r="F59" s="150"/>
+      <c r="G59" s="150"/>
+      <c r="H59" s="228"/>
+      <c r="I59" s="229"/>
       <c r="J59" s="41"/>
-      <c r="K59" s="158"/>
-      <c r="L59" s="159"/>
-      <c r="M59" s="160"/>
-      <c r="N59" s="158"/>
-      <c r="O59" s="159"/>
-      <c r="P59" s="159"/>
-      <c r="Q59" s="160"/>
+      <c r="K59" s="164"/>
+      <c r="L59" s="220"/>
+      <c r="M59" s="165"/>
+      <c r="N59" s="164"/>
+      <c r="O59" s="220"/>
+      <c r="P59" s="220"/>
+      <c r="Q59" s="165"/>
       <c r="R59" s="41"/>
       <c r="S59" s="41"/>
       <c r="T59" s="41"/>
@@ -6052,23 +6052,23 @@
       <c r="B60" s="9">
         <v>10</v>
       </c>
-      <c r="C60" s="225" t="s">
+      <c r="C60" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="D60" s="226"/>
-      <c r="E60" s="226"/>
-      <c r="F60" s="226"/>
-      <c r="G60" s="226"/>
-      <c r="H60" s="147"/>
-      <c r="I60" s="148"/>
+      <c r="D60" s="150"/>
+      <c r="E60" s="150"/>
+      <c r="F60" s="150"/>
+      <c r="G60" s="150"/>
+      <c r="H60" s="228"/>
+      <c r="I60" s="229"/>
       <c r="J60" s="41"/>
-      <c r="K60" s="158"/>
-      <c r="L60" s="159"/>
-      <c r="M60" s="160"/>
-      <c r="N60" s="158"/>
-      <c r="O60" s="159"/>
-      <c r="P60" s="159"/>
-      <c r="Q60" s="160"/>
+      <c r="K60" s="164"/>
+      <c r="L60" s="220"/>
+      <c r="M60" s="165"/>
+      <c r="N60" s="164"/>
+      <c r="O60" s="220"/>
+      <c r="P60" s="220"/>
+      <c r="Q60" s="165"/>
       <c r="R60" s="41"/>
       <c r="S60" s="41"/>
       <c r="T60" s="41"/>
@@ -6142,10 +6142,10 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
-      <c r="L64" s="163" t="s">
+      <c r="L64" s="200" t="s">
         <v>196</v>
       </c>
-      <c r="M64" s="164"/>
+      <c r="M64" s="204"/>
       <c r="N64" s="11" t="s">
         <v>166</v>
       </c>
@@ -6169,10 +6169,10 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="161" t="s">
+      <c r="L65" s="202" t="s">
         <v>197</v>
       </c>
-      <c r="M65" s="162"/>
+      <c r="M65" s="205"/>
       <c r="N65" s="1" t="s">
         <v>166</v>
       </c>
@@ -6186,18 +6186,143 @@
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="S49:T50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N38:O39"/>
+    <mergeCell ref="N40:O41"/>
+    <mergeCell ref="I38:J39"/>
+    <mergeCell ref="K38:L39"/>
+    <mergeCell ref="I40:J41"/>
+    <mergeCell ref="K40:L41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U7"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="M10:O11"/>
+    <mergeCell ref="M12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="G34:O34"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B35:C36"/>
+    <mergeCell ref="D35:E36"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="N36:O37"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="I36:J37"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="O22:U22"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="M6:O7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="O21:U21"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T17:U19"/>
+    <mergeCell ref="Q17:S19"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="M26:N27"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G38:H39"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P36:S36"/>
     <mergeCell ref="C59:G59"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C60:G60"/>
@@ -6222,147 +6347,22 @@
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="M26:N27"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G38:H39"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="H6:K7"/>
-    <mergeCell ref="M6:O7"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="O21:U21"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T17:U19"/>
-    <mergeCell ref="Q17:S19"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B35:C36"/>
-    <mergeCell ref="D35:E36"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="I36:J37"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="O22:U22"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U7"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="M10:O11"/>
-    <mergeCell ref="M12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="G34:O34"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N38:O39"/>
-    <mergeCell ref="N40:O41"/>
-    <mergeCell ref="I38:J39"/>
-    <mergeCell ref="K38:L39"/>
-    <mergeCell ref="I40:J41"/>
-    <mergeCell ref="K40:L41"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="N56:Q56"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="S49:T50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;7          </oddHeader>
     <oddFooter>&amp;L様式-010、様式-018の別紙&amp;C1/3&amp;R&amp;F</oddFooter>
@@ -6391,23 +6391,23 @@
       <c r="A1" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="208">
+      <c r="J1" s="168">
         <f>Sheet1!B13</f>
         <v>0</v>
       </c>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
       <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="208">
+      <c r="P1" s="168">
         <f>Sheet1!B14</f>
         <v>0</v>
       </c>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
       <c r="T1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6430,32 +6430,32 @@
     </row>
     <row r="5" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="260"/>
-      <c r="D5" s="260" t="s">
+      <c r="C5" s="236"/>
+      <c r="D5" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="260"/>
+      <c r="E5" s="236"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="262" t="s">
+      <c r="G5" s="240" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="262"/>
+      <c r="H5" s="240"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="245" t="s">
+      <c r="J5" s="237" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="246"/>
-      <c r="L5" s="246"/>
-      <c r="M5" s="246"/>
-      <c r="N5" s="246"/>
-      <c r="O5" s="261"/>
+      <c r="K5" s="238"/>
+      <c r="L5" s="238"/>
+      <c r="M5" s="238"/>
+      <c r="N5" s="238"/>
+      <c r="O5" s="239"/>
     </row>
     <row r="6" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="167"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="144"/>
       <c r="D6" s="144"/>
       <c r="E6" s="144"/>
@@ -6463,22 +6463,22 @@
       <c r="G6" s="144"/>
       <c r="H6" s="144"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="186" t="s">
+      <c r="J6" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="186"/>
-      <c r="L6" s="186" t="s">
+      <c r="K6" s="148"/>
+      <c r="L6" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="186"/>
-      <c r="N6" s="186" t="s">
+      <c r="M6" s="148"/>
+      <c r="N6" s="148" t="s">
         <v>156</v>
       </c>
-      <c r="O6" s="186"/>
+      <c r="O6" s="148"/>
     </row>
     <row r="7" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="167"/>
+      <c r="B7" s="146"/>
       <c r="C7" s="144"/>
       <c r="D7" s="144"/>
       <c r="E7" s="144"/>
@@ -6486,15 +6486,15 @@
       <c r="G7" s="144"/>
       <c r="H7" s="144"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="263">
+      <c r="J7" s="241">
         <f>Sheet1!K10</f>
         <v>0</v>
       </c>
-      <c r="K7" s="264"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
     </row>
     <row r="8" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
@@ -6588,45 +6588,45 @@
     </row>
     <row r="14" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="71"/>
-      <c r="C14" s="227" t="s">
+      <c r="C14" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="227"/>
-      <c r="E14" s="227"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
       <c r="F14" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="149" t="s">
+      <c r="G14" s="221" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="151"/>
+      <c r="H14" s="223"/>
       <c r="I14" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="255" t="s">
+      <c r="J14" s="256" t="s">
         <v>158</v>
       </c>
-      <c r="K14" s="255"/>
+      <c r="K14" s="256"/>
       <c r="L14" s="71"/>
-      <c r="M14" s="227" t="s">
+      <c r="M14" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="N14" s="227"/>
-      <c r="O14" s="227"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
       <c r="P14" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="Q14" s="149" t="s">
+      <c r="Q14" s="221" t="s">
         <v>114</v>
       </c>
-      <c r="R14" s="151"/>
+      <c r="R14" s="223"/>
       <c r="S14" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="T14" s="255" t="s">
+      <c r="T14" s="256" t="s">
         <v>158</v>
       </c>
-      <c r="U14" s="255"/>
+      <c r="U14" s="256"/>
     </row>
     <row r="15" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9">
@@ -6638,13 +6638,13 @@
       <c r="D15" s="144"/>
       <c r="E15" s="144"/>
       <c r="F15" s="41"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="160"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="165"/>
       <c r="I15" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
       <c r="L15" s="9">
         <v>11</v>
       </c>
@@ -6654,13 +6654,13 @@
       <c r="N15" s="144"/>
       <c r="O15" s="144"/>
       <c r="P15" s="41"/>
-      <c r="Q15" s="158"/>
-      <c r="R15" s="160"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="165"/>
       <c r="S15" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="T15" s="167"/>
-      <c r="U15" s="167"/>
+      <c r="T15" s="146"/>
+      <c r="U15" s="146"/>
     </row>
     <row r="16" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9">
@@ -6672,13 +6672,13 @@
       <c r="D16" s="144"/>
       <c r="E16" s="144"/>
       <c r="F16" s="41"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="160"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="165"/>
       <c r="I16" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="146"/>
       <c r="L16" s="9">
         <v>12</v>
       </c>
@@ -6688,13 +6688,13 @@
       <c r="N16" s="144"/>
       <c r="O16" s="144"/>
       <c r="P16" s="41"/>
-      <c r="Q16" s="158"/>
-      <c r="R16" s="160"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="165"/>
       <c r="S16" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="T16" s="167"/>
-      <c r="U16" s="167"/>
+      <c r="T16" s="146"/>
+      <c r="U16" s="146"/>
     </row>
     <row r="17" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
@@ -6706,13 +6706,13 @@
       <c r="D17" s="144"/>
       <c r="E17" s="144"/>
       <c r="F17" s="41"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="160"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="165"/>
       <c r="I17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
       <c r="L17" s="9">
         <v>13</v>
       </c>
@@ -6722,13 +6722,13 @@
       <c r="N17" s="144"/>
       <c r="O17" s="144"/>
       <c r="P17" s="41"/>
-      <c r="Q17" s="158"/>
-      <c r="R17" s="160"/>
+      <c r="Q17" s="164"/>
+      <c r="R17" s="165"/>
       <c r="S17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="167"/>
-      <c r="U17" s="167"/>
+      <c r="T17" s="146"/>
+      <c r="U17" s="146"/>
     </row>
     <row r="18" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9">
@@ -6740,13 +6740,13 @@
       <c r="D18" s="144"/>
       <c r="E18" s="144"/>
       <c r="F18" s="41"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="160"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="165"/>
       <c r="I18" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
       <c r="L18" s="9">
         <v>14</v>
       </c>
@@ -6756,13 +6756,13 @@
       <c r="N18" s="144"/>
       <c r="O18" s="144"/>
       <c r="P18" s="41"/>
-      <c r="Q18" s="158"/>
-      <c r="R18" s="160"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="165"/>
       <c r="S18" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="167"/>
-      <c r="U18" s="167"/>
+      <c r="T18" s="146"/>
+      <c r="U18" s="146"/>
     </row>
     <row r="19" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9">
@@ -6774,13 +6774,13 @@
       <c r="D19" s="144"/>
       <c r="E19" s="144"/>
       <c r="F19" s="41"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="160"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="165"/>
       <c r="I19" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="167"/>
-      <c r="K19" s="167"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
       <c r="L19" s="9">
         <v>15</v>
       </c>
@@ -6790,13 +6790,13 @@
       <c r="N19" s="144"/>
       <c r="O19" s="144"/>
       <c r="P19" s="41"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="160"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="165"/>
       <c r="S19" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="T19" s="167"/>
-      <c r="U19" s="167"/>
+      <c r="T19" s="146"/>
+      <c r="U19" s="146"/>
     </row>
     <row r="20" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9">
@@ -6808,13 +6808,13 @@
       <c r="D20" s="144"/>
       <c r="E20" s="144"/>
       <c r="F20" s="41"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="160"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="165"/>
       <c r="I20" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="167"/>
-      <c r="K20" s="167"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
       <c r="L20" s="9">
         <v>16</v>
       </c>
@@ -6824,13 +6824,13 @@
       <c r="N20" s="144"/>
       <c r="O20" s="144"/>
       <c r="P20" s="41"/>
-      <c r="Q20" s="158"/>
-      <c r="R20" s="160"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="165"/>
       <c r="S20" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="T20" s="167"/>
-      <c r="U20" s="167"/>
+      <c r="T20" s="146"/>
+      <c r="U20" s="146"/>
     </row>
     <row r="21" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9">
@@ -6842,13 +6842,13 @@
       <c r="D21" s="144"/>
       <c r="E21" s="144"/>
       <c r="F21" s="41"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="160"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="165"/>
       <c r="I21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="167"/>
-      <c r="K21" s="167"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
       <c r="L21" s="9">
         <v>17</v>
       </c>
@@ -6858,13 +6858,13 @@
       <c r="N21" s="144"/>
       <c r="O21" s="144"/>
       <c r="P21" s="41"/>
-      <c r="Q21" s="158"/>
-      <c r="R21" s="160"/>
+      <c r="Q21" s="164"/>
+      <c r="R21" s="165"/>
       <c r="S21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="T21" s="167"/>
-      <c r="U21" s="167"/>
+      <c r="T21" s="146"/>
+      <c r="U21" s="146"/>
     </row>
     <row r="22" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9">
@@ -6876,13 +6876,13 @@
       <c r="D22" s="144"/>
       <c r="E22" s="144"/>
       <c r="F22" s="41"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="160"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="165"/>
       <c r="I22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="167"/>
-      <c r="K22" s="167"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
       <c r="L22" s="9">
         <v>18</v>
       </c>
@@ -6892,13 +6892,13 @@
       <c r="N22" s="144"/>
       <c r="O22" s="144"/>
       <c r="P22" s="41"/>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="160"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="165"/>
       <c r="S22" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="167"/>
-      <c r="U22" s="167"/>
+      <c r="T22" s="146"/>
+      <c r="U22" s="146"/>
     </row>
     <row r="23" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9">
@@ -6910,13 +6910,13 @@
       <c r="D23" s="144"/>
       <c r="E23" s="144"/>
       <c r="F23" s="41"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="160"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="165"/>
       <c r="I23" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="167"/>
-      <c r="K23" s="167"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
       <c r="L23" s="9">
         <v>19</v>
       </c>
@@ -6926,13 +6926,13 @@
       <c r="N23" s="144"/>
       <c r="O23" s="144"/>
       <c r="P23" s="41"/>
-      <c r="Q23" s="158"/>
-      <c r="R23" s="160"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="165"/>
       <c r="S23" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="T23" s="167"/>
-      <c r="U23" s="167"/>
+      <c r="T23" s="146"/>
+      <c r="U23" s="146"/>
     </row>
     <row r="24" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24"/>
@@ -6945,13 +6945,13 @@
       <c r="D24" s="144"/>
       <c r="E24" s="144"/>
       <c r="F24" s="41"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="160"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="165"/>
       <c r="I24" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="167"/>
-      <c r="K24" s="167"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
       <c r="L24" s="9">
         <v>20</v>
       </c>
@@ -6961,13 +6961,13 @@
       <c r="N24" s="144"/>
       <c r="O24" s="144"/>
       <c r="P24" s="41"/>
-      <c r="Q24" s="158"/>
-      <c r="R24" s="160"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="165"/>
       <c r="S24" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="T24" s="167"/>
-      <c r="U24" s="167"/>
+      <c r="T24" s="146"/>
+      <c r="U24" s="146"/>
     </row>
     <row r="25" spans="1:21" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25"/>
@@ -6982,173 +6982,173 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
-      <c r="B27" s="254" t="s">
+      <c r="B27" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="252"/>
-      <c r="D27" s="252" t="s">
+      <c r="C27" s="246"/>
+      <c r="D27" s="246" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="252"/>
-      <c r="F27" s="252" t="s">
+      <c r="E27" s="246"/>
+      <c r="F27" s="246" t="s">
         <v>165</v>
       </c>
-      <c r="G27" s="252"/>
-      <c r="H27" s="252"/>
-      <c r="I27" s="252"/>
-      <c r="J27" s="252"/>
-      <c r="K27" s="253"/>
-      <c r="L27" s="254" t="s">
+      <c r="G27" s="246"/>
+      <c r="H27" s="246"/>
+      <c r="I27" s="246"/>
+      <c r="J27" s="246"/>
+      <c r="K27" s="250"/>
+      <c r="L27" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="252"/>
-      <c r="N27" s="252" t="s">
+      <c r="M27" s="246"/>
+      <c r="N27" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="O27" s="252"/>
-      <c r="P27" s="252" t="s">
+      <c r="O27" s="246"/>
+      <c r="P27" s="246" t="s">
         <v>165</v>
       </c>
-      <c r="Q27" s="252"/>
-      <c r="R27" s="252"/>
-      <c r="S27" s="252"/>
-      <c r="T27" s="252"/>
-      <c r="U27" s="253"/>
+      <c r="Q27" s="246"/>
+      <c r="R27" s="246"/>
+      <c r="S27" s="246"/>
+      <c r="T27" s="246"/>
+      <c r="U27" s="250"/>
     </row>
     <row r="28" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
-      <c r="B28" s="258"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167" t="s">
+      <c r="B28" s="243"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146" t="s">
         <v>198</v>
       </c>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="249"/>
-      <c r="L28" s="258"/>
-      <c r="M28" s="167"/>
-      <c r="N28" s="167"/>
-      <c r="O28" s="167"/>
-      <c r="P28" s="167" t="s">
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="251"/>
+      <c r="L28" s="243"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="146"/>
+      <c r="P28" s="146" t="s">
         <v>166</v>
       </c>
-      <c r="Q28" s="167"/>
-      <c r="R28" s="167"/>
-      <c r="S28" s="167"/>
-      <c r="T28" s="167"/>
-      <c r="U28" s="249"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="146"/>
+      <c r="S28" s="146"/>
+      <c r="T28" s="146"/>
+      <c r="U28" s="251"/>
     </row>
     <row r="29" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="259"/>
-      <c r="C29" s="250"/>
-      <c r="D29" s="250"/>
-      <c r="E29" s="250"/>
-      <c r="F29" s="250"/>
-      <c r="G29" s="250"/>
-      <c r="H29" s="250"/>
-      <c r="I29" s="250"/>
-      <c r="J29" s="250"/>
-      <c r="K29" s="251"/>
-      <c r="L29" s="259"/>
-      <c r="M29" s="250"/>
-      <c r="N29" s="250"/>
-      <c r="O29" s="250"/>
-      <c r="P29" s="250"/>
-      <c r="Q29" s="250"/>
-      <c r="R29" s="250"/>
-      <c r="S29" s="250"/>
-      <c r="T29" s="250"/>
-      <c r="U29" s="251"/>
+      <c r="B29" s="244"/>
+      <c r="C29" s="245"/>
+      <c r="D29" s="245"/>
+      <c r="E29" s="245"/>
+      <c r="F29" s="245"/>
+      <c r="G29" s="245"/>
+      <c r="H29" s="245"/>
+      <c r="I29" s="245"/>
+      <c r="J29" s="245"/>
+      <c r="K29" s="252"/>
+      <c r="L29" s="244"/>
+      <c r="M29" s="245"/>
+      <c r="N29" s="245"/>
+      <c r="O29" s="245"/>
+      <c r="P29" s="245"/>
+      <c r="Q29" s="245"/>
+      <c r="R29" s="245"/>
+      <c r="S29" s="245"/>
+      <c r="T29" s="245"/>
+      <c r="U29" s="252"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
-      <c r="B30" s="254" t="s">
+      <c r="B30" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="252"/>
-      <c r="D30" s="252" t="s">
+      <c r="C30" s="246"/>
+      <c r="D30" s="246" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="252"/>
-      <c r="F30" s="252" t="s">
+      <c r="E30" s="246"/>
+      <c r="F30" s="246" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="252"/>
-      <c r="H30" s="252"/>
-      <c r="I30" s="252"/>
-      <c r="J30" s="252"/>
-      <c r="K30" s="253"/>
-      <c r="L30" s="254" t="s">
+      <c r="G30" s="246"/>
+      <c r="H30" s="246"/>
+      <c r="I30" s="246"/>
+      <c r="J30" s="246"/>
+      <c r="K30" s="250"/>
+      <c r="L30" s="249" t="s">
         <v>3</v>
       </c>
-      <c r="M30" s="252"/>
-      <c r="N30" s="252" t="s">
+      <c r="M30" s="246"/>
+      <c r="N30" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="O30" s="252"/>
-      <c r="P30" s="252" t="s">
+      <c r="O30" s="246"/>
+      <c r="P30" s="246" t="s">
         <v>165</v>
       </c>
-      <c r="Q30" s="252"/>
-      <c r="R30" s="252"/>
-      <c r="S30" s="252"/>
-      <c r="T30" s="252"/>
-      <c r="U30" s="253"/>
+      <c r="Q30" s="246"/>
+      <c r="R30" s="246"/>
+      <c r="S30" s="246"/>
+      <c r="T30" s="246"/>
+      <c r="U30" s="250"/>
     </row>
     <row r="31" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
-      <c r="B31" s="258"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167" t="s">
+      <c r="B31" s="243"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="167"/>
-      <c r="K31" s="249"/>
-      <c r="L31" s="258"/>
-      <c r="M31" s="167"/>
-      <c r="N31" s="167"/>
-      <c r="O31" s="167"/>
-      <c r="P31" s="167" t="s">
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="251"/>
+      <c r="L31" s="243"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146" t="s">
         <v>166</v>
       </c>
-      <c r="Q31" s="167"/>
-      <c r="R31" s="167"/>
-      <c r="S31" s="167"/>
-      <c r="T31" s="167"/>
-      <c r="U31" s="249"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="146"/>
+      <c r="S31" s="146"/>
+      <c r="T31" s="146"/>
+      <c r="U31" s="251"/>
     </row>
     <row r="32" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="259"/>
-      <c r="C32" s="250"/>
-      <c r="D32" s="250"/>
-      <c r="E32" s="250"/>
-      <c r="F32" s="250"/>
-      <c r="G32" s="250"/>
-      <c r="H32" s="250"/>
-      <c r="I32" s="250"/>
-      <c r="J32" s="250"/>
-      <c r="K32" s="251"/>
-      <c r="L32" s="259"/>
-      <c r="M32" s="250"/>
-      <c r="N32" s="250"/>
-      <c r="O32" s="250"/>
-      <c r="P32" s="250"/>
-      <c r="Q32" s="250"/>
-      <c r="R32" s="250"/>
-      <c r="S32" s="250"/>
-      <c r="T32" s="250"/>
-      <c r="U32" s="251"/>
+      <c r="B32" s="244"/>
+      <c r="C32" s="245"/>
+      <c r="D32" s="245"/>
+      <c r="E32" s="245"/>
+      <c r="F32" s="245"/>
+      <c r="G32" s="245"/>
+      <c r="H32" s="245"/>
+      <c r="I32" s="245"/>
+      <c r="J32" s="245"/>
+      <c r="K32" s="252"/>
+      <c r="L32" s="244"/>
+      <c r="M32" s="245"/>
+      <c r="N32" s="245"/>
+      <c r="O32" s="245"/>
+      <c r="P32" s="245"/>
+      <c r="Q32" s="245"/>
+      <c r="R32" s="245"/>
+      <c r="S32" s="245"/>
+      <c r="T32" s="245"/>
+      <c r="U32" s="252"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
@@ -7173,68 +7173,68 @@
       <c r="B37" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="K37" s="243" t="s">
+      <c r="K37" s="257" t="s">
         <v>172</v>
       </c>
-      <c r="L37" s="243"/>
-      <c r="M37" s="243"/>
-      <c r="N37" s="243"/>
-      <c r="O37" s="243"/>
-      <c r="P37" s="243"/>
-      <c r="Q37" s="243"/>
-      <c r="R37" s="243"/>
-      <c r="S37" s="243"/>
-      <c r="T37" s="243"/>
-      <c r="U37" s="243"/>
+      <c r="L37" s="257"/>
+      <c r="M37" s="257"/>
+      <c r="N37" s="257"/>
+      <c r="O37" s="257"/>
+      <c r="P37" s="257"/>
+      <c r="Q37" s="257"/>
+      <c r="R37" s="257"/>
+      <c r="S37" s="257"/>
+      <c r="T37" s="257"/>
+      <c r="U37" s="257"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174" t="s">
+      <c r="C38" s="158"/>
+      <c r="D38" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="174"/>
-      <c r="F38" s="175" t="s">
+      <c r="E38" s="158"/>
+      <c r="F38" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="175"/>
-      <c r="H38" s="167" t="s">
+      <c r="G38" s="159"/>
+      <c r="H38" s="146" t="s">
         <v>187</v>
       </c>
-      <c r="I38" s="167"/>
-      <c r="K38" s="245" t="s">
+      <c r="I38" s="146"/>
+      <c r="K38" s="237" t="s">
         <v>74</v>
       </c>
-      <c r="L38" s="246"/>
-      <c r="M38" s="246"/>
-      <c r="N38" s="243" t="s">
+      <c r="L38" s="238"/>
+      <c r="M38" s="238"/>
+      <c r="N38" s="257" t="s">
         <v>95</v>
       </c>
-      <c r="O38" s="243"/>
-      <c r="P38" s="243"/>
-      <c r="Q38" s="186" t="s">
+      <c r="O38" s="257"/>
+      <c r="P38" s="257"/>
+      <c r="Q38" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="R38" s="186"/>
+      <c r="R38" s="148"/>
       <c r="S38" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="T38" s="186" t="s">
+      <c r="T38" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="U38" s="186"/>
+      <c r="U38" s="148"/>
     </row>
     <row r="39" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="167"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="167"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
       <c r="K39" s="95" t="s">
         <v>223</v>
       </c>
@@ -7242,17 +7242,17 @@
         <v>224</v>
       </c>
       <c r="M39" s="248"/>
-      <c r="N39" s="244" t="str">
+      <c r="N39" s="254" t="str">
         <f>IF(ISERROR(VLOOKUP(K39,Sheet1!$A$2:$C$9,2,0)),"",VLOOKUP(K39,Sheet1!$A$2:$C$9,2,0))</f>
         <v/>
       </c>
-      <c r="O39" s="244"/>
-      <c r="P39" s="244"/>
-      <c r="Q39" s="256" t="str">
+      <c r="O39" s="254"/>
+      <c r="P39" s="254"/>
+      <c r="Q39" s="253" t="str">
         <f>IF(N39="","0",VLOOKUP(K39,Sheet1!$A$2:$C$9,3,0))</f>
         <v>0</v>
       </c>
-      <c r="R39" s="256"/>
+      <c r="R39" s="253"/>
       <c r="S39" s="21" t="s">
         <v>39</v>
       </c>
@@ -7262,14 +7262,14 @@
       <c r="U39" s="144"/>
     </row>
     <row r="40" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
+      <c r="B40" s="146"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
       <c r="K40" s="95" t="s">
         <v>225</v>
       </c>
@@ -7277,17 +7277,17 @@
         <v>226</v>
       </c>
       <c r="M40" s="248"/>
-      <c r="N40" s="244" t="str">
+      <c r="N40" s="254" t="str">
         <f>IF(ISERROR(VLOOKUP(K40,Sheet1!$A$2:$C$9,2,0)),"",VLOOKUP(K40,Sheet1!$A$2:$C$9,2,0))</f>
         <v/>
       </c>
-      <c r="O40" s="244"/>
-      <c r="P40" s="244"/>
-      <c r="Q40" s="256" t="str">
+      <c r="O40" s="254"/>
+      <c r="P40" s="254"/>
+      <c r="Q40" s="253" t="str">
         <f>IF(N40="","0",VLOOKUP(K40,Sheet1!$A$2:$C$9,3,0))</f>
         <v>0</v>
       </c>
-      <c r="R40" s="256"/>
+      <c r="R40" s="253"/>
       <c r="S40" s="21" t="s">
         <v>39</v>
       </c>
@@ -7304,17 +7304,17 @@
         <v>228</v>
       </c>
       <c r="M41" s="248"/>
-      <c r="N41" s="244" t="str">
+      <c r="N41" s="254" t="str">
         <f>IF(ISERROR(VLOOKUP(K41,Sheet1!$A$2:$C$9,2,0)),"",VLOOKUP(K41,Sheet1!$A$2:$C$9,2,0))</f>
         <v/>
       </c>
-      <c r="O41" s="244"/>
-      <c r="P41" s="244"/>
-      <c r="Q41" s="256" t="str">
+      <c r="O41" s="254"/>
+      <c r="P41" s="254"/>
+      <c r="Q41" s="253" t="str">
         <f>IF(N41="","0",VLOOKUP(K41,Sheet1!$A$2:$C$9,3,0))</f>
         <v>0</v>
       </c>
-      <c r="R41" s="256"/>
+      <c r="R41" s="253"/>
       <c r="S41" s="21" t="s">
         <v>39</v>
       </c>
@@ -7334,17 +7334,17 @@
         <v>230</v>
       </c>
       <c r="M42" s="248"/>
-      <c r="N42" s="244" t="str">
+      <c r="N42" s="254" t="str">
         <f>IF(ISERROR(VLOOKUP(K42,Sheet1!$A$2:$C$9,2,0)),"",VLOOKUP(K42,Sheet1!$A$2:$C$9,2,0))</f>
         <v/>
       </c>
-      <c r="O42" s="244"/>
-      <c r="P42" s="244"/>
-      <c r="Q42" s="256" t="str">
+      <c r="O42" s="254"/>
+      <c r="P42" s="254"/>
+      <c r="Q42" s="253" t="str">
         <f>IF(N42="","0",VLOOKUP(K42,Sheet1!$A$2:$C$9,3,0))</f>
         <v>0</v>
       </c>
-      <c r="R42" s="256"/>
+      <c r="R42" s="253"/>
       <c r="S42" s="21" t="s">
         <v>39</v>
       </c>
@@ -7364,24 +7364,24 @@
         <v>232</v>
       </c>
       <c r="M43" s="248"/>
-      <c r="N43" s="244" t="str">
+      <c r="N43" s="254" t="str">
         <f>IF(ISERROR(VLOOKUP(K43,Sheet1!$A$2:$C$9,2,0)),"",VLOOKUP(K43,Sheet1!$A$2:$C$9,2,0))</f>
         <v/>
       </c>
-      <c r="O43" s="244"/>
-      <c r="P43" s="244"/>
-      <c r="Q43" s="256" t="str">
+      <c r="O43" s="254"/>
+      <c r="P43" s="254"/>
+      <c r="Q43" s="253" t="str">
         <f>IF(N43="","0",VLOOKUP(K43,Sheet1!$A$2:$C$9,3,0))</f>
         <v>0</v>
       </c>
-      <c r="R43" s="256"/>
+      <c r="R43" s="253"/>
       <c r="S43" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="T43" s="167" t="s">
+      <c r="T43" s="146" t="s">
         <v>169</v>
       </c>
-      <c r="U43" s="167"/>
+      <c r="U43" s="146"/>
     </row>
     <row r="44" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K44" s="95" t="s">
@@ -7391,24 +7391,24 @@
         <v>234</v>
       </c>
       <c r="M44" s="248"/>
-      <c r="N44" s="244" t="str">
+      <c r="N44" s="254" t="str">
         <f>IF(ISERROR(VLOOKUP(K44,Sheet1!$A$2:$C$9,2,0)),"",VLOOKUP(K44,Sheet1!$A$2:$C$9,2,0))</f>
         <v/>
       </c>
-      <c r="O44" s="244"/>
-      <c r="P44" s="244"/>
-      <c r="Q44" s="256" t="str">
+      <c r="O44" s="254"/>
+      <c r="P44" s="254"/>
+      <c r="Q44" s="253" t="str">
         <f>IF(N44="","0",VLOOKUP(K44,Sheet1!$A$2:$C$9,3,0))</f>
         <v>0</v>
       </c>
-      <c r="R44" s="256"/>
+      <c r="R44" s="253"/>
       <c r="S44" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="T44" s="167" t="s">
+      <c r="T44" s="146" t="s">
         <v>169</v>
       </c>
-      <c r="U44" s="167"/>
+      <c r="U44" s="146"/>
     </row>
     <row r="45" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K45" s="95" t="s">
@@ -7418,24 +7418,24 @@
         <v>236</v>
       </c>
       <c r="M45" s="248"/>
-      <c r="N45" s="244" t="str">
+      <c r="N45" s="254" t="str">
         <f>IF(ISERROR(VLOOKUP(K45,Sheet1!$A$2:$C$9,2,0)),"",VLOOKUP(K45,Sheet1!$A$2:$C$9,2,0))</f>
         <v/>
       </c>
-      <c r="O45" s="244"/>
-      <c r="P45" s="244"/>
-      <c r="Q45" s="256" t="str">
+      <c r="O45" s="254"/>
+      <c r="P45" s="254"/>
+      <c r="Q45" s="253" t="str">
         <f>IF(N45="","0",VLOOKUP(K45,Sheet1!$A$2:$C$9,3,0))</f>
         <v>0</v>
       </c>
-      <c r="R45" s="256"/>
+      <c r="R45" s="253"/>
       <c r="S45" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="T45" s="167" t="s">
+      <c r="T45" s="146" t="s">
         <v>169</v>
       </c>
-      <c r="U45" s="167"/>
+      <c r="U45" s="146"/>
     </row>
     <row r="46" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K46" s="95" t="s">
@@ -7445,45 +7445,45 @@
         <v>238</v>
       </c>
       <c r="M46" s="248"/>
-      <c r="N46" s="244" t="str">
+      <c r="N46" s="254" t="str">
         <f>IF(ISERROR(VLOOKUP(K46,Sheet1!$A$2:$C$9,2,0)),"",VLOOKUP(K46,Sheet1!$A$2:$C$9,2,0))</f>
         <v/>
       </c>
-      <c r="O46" s="244"/>
-      <c r="P46" s="244"/>
-      <c r="Q46" s="256" t="str">
+      <c r="O46" s="254"/>
+      <c r="P46" s="254"/>
+      <c r="Q46" s="253" t="str">
         <f>IF(N46="","0",VLOOKUP(K46,Sheet1!$A$2:$C$9,3,0))</f>
         <v>0</v>
       </c>
-      <c r="R46" s="256"/>
+      <c r="R46" s="253"/>
       <c r="S46" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="T46" s="167" t="s">
+      <c r="T46" s="146" t="s">
         <v>169</v>
       </c>
-      <c r="U46" s="167"/>
+      <c r="U46" s="146"/>
     </row>
     <row r="47" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O47" s="175" t="s">
+      <c r="O47" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="P47" s="175"/>
-      <c r="Q47" s="257">
+      <c r="P47" s="159"/>
+      <c r="Q47" s="255">
         <f>SUM(Q39:R46)</f>
         <v>0</v>
       </c>
-      <c r="R47" s="257"/>
-      <c r="S47" s="167" t="s">
+      <c r="R47" s="255"/>
+      <c r="S47" s="146" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O48" s="175"/>
-      <c r="P48" s="175"/>
-      <c r="Q48" s="257"/>
-      <c r="R48" s="257"/>
-      <c r="S48" s="167"/>
+      <c r="O48" s="159"/>
+      <c r="P48" s="159"/>
+      <c r="Q48" s="255"/>
+      <c r="R48" s="255"/>
+      <c r="S48" s="146"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49" s="25" t="s">
@@ -7495,116 +7495,116 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
-      <c r="B50" s="174" t="s">
+      <c r="B50" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174" t="s">
+      <c r="C50" s="158"/>
+      <c r="D50" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="174"/>
-      <c r="G50" s="186" t="s">
+      <c r="E50" s="158"/>
+      <c r="G50" s="148" t="s">
         <v>176</v>
       </c>
-      <c r="H50" s="186"/>
-      <c r="I50" s="186"/>
-      <c r="J50" s="186" t="s">
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="148" t="s">
         <v>202</v>
       </c>
-      <c r="K50" s="186"/>
-      <c r="L50" s="186"/>
-      <c r="M50" s="186"/>
-      <c r="N50" s="186"/>
-      <c r="O50" s="186"/>
-      <c r="P50" s="186"/>
-      <c r="Q50" s="186"/>
-      <c r="R50" s="186" t="s">
+      <c r="K50" s="148"/>
+      <c r="L50" s="148"/>
+      <c r="M50" s="148"/>
+      <c r="N50" s="148"/>
+      <c r="O50" s="148"/>
+      <c r="P50" s="148"/>
+      <c r="Q50" s="148"/>
+      <c r="R50" s="148" t="s">
         <v>181</v>
       </c>
-      <c r="S50" s="186"/>
+      <c r="S50" s="148"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
-      <c r="E51" s="167"/>
-      <c r="G51" s="236" t="s">
+      <c r="B51" s="146"/>
+      <c r="C51" s="146"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="G51" s="258" t="s">
         <v>177</v>
       </c>
-      <c r="H51" s="236"/>
-      <c r="I51" s="236"/>
-      <c r="J51" s="239" t="s">
+      <c r="H51" s="258"/>
+      <c r="I51" s="258"/>
+      <c r="J51" s="261" t="s">
         <v>185</v>
       </c>
-      <c r="K51" s="239"/>
-      <c r="L51" s="239"/>
-      <c r="M51" s="239"/>
-      <c r="N51" s="240"/>
-      <c r="O51" s="237">
+      <c r="K51" s="261"/>
+      <c r="L51" s="261"/>
+      <c r="M51" s="261"/>
+      <c r="N51" s="262"/>
+      <c r="O51" s="259">
         <f>Sheet1!B14</f>
         <v>0</v>
       </c>
-      <c r="P51" s="238"/>
-      <c r="Q51" s="238"/>
-      <c r="R51" s="167" t="s">
+      <c r="P51" s="260"/>
+      <c r="Q51" s="260"/>
+      <c r="R51" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="S51" s="167"/>
+      <c r="S51" s="146"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A52" s="5"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
-      <c r="E52" s="167"/>
-      <c r="G52" s="236" t="s">
+      <c r="B52" s="146"/>
+      <c r="C52" s="146"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="G52" s="258" t="s">
         <v>178</v>
       </c>
-      <c r="H52" s="236"/>
-      <c r="I52" s="236"/>
-      <c r="J52" s="239" t="s">
+      <c r="H52" s="258"/>
+      <c r="I52" s="258"/>
+      <c r="J52" s="261" t="s">
         <v>182</v>
       </c>
-      <c r="K52" s="239"/>
-      <c r="L52" s="239"/>
-      <c r="M52" s="239"/>
-      <c r="N52" s="240"/>
-      <c r="O52" s="237">
+      <c r="K52" s="261"/>
+      <c r="L52" s="261"/>
+      <c r="M52" s="261"/>
+      <c r="N52" s="262"/>
+      <c r="O52" s="259">
         <f>Sheet1!B14</f>
         <v>0</v>
       </c>
-      <c r="P52" s="238"/>
-      <c r="Q52" s="238"/>
-      <c r="R52" s="167" t="s">
+      <c r="P52" s="260"/>
+      <c r="Q52" s="260"/>
+      <c r="R52" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="167"/>
+      <c r="S52" s="146"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A53" s="5"/>
-      <c r="G53" s="236" t="s">
+      <c r="G53" s="258" t="s">
         <v>179</v>
       </c>
-      <c r="H53" s="236"/>
-      <c r="I53" s="236"/>
-      <c r="J53" s="241" t="s">
+      <c r="H53" s="258"/>
+      <c r="I53" s="258"/>
+      <c r="J53" s="263" t="s">
         <v>183</v>
       </c>
-      <c r="K53" s="241"/>
-      <c r="L53" s="241"/>
-      <c r="M53" s="241"/>
-      <c r="N53" s="242"/>
-      <c r="O53" s="237">
+      <c r="K53" s="263"/>
+      <c r="L53" s="263"/>
+      <c r="M53" s="263"/>
+      <c r="N53" s="264"/>
+      <c r="O53" s="259">
         <f>Sheet1!B14</f>
         <v>0</v>
       </c>
-      <c r="P53" s="238"/>
-      <c r="Q53" s="238"/>
-      <c r="R53" s="167" t="s">
+      <c r="P53" s="260"/>
+      <c r="Q53" s="260"/>
+      <c r="R53" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="S53" s="167"/>
+      <c r="S53" s="146"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A54" s="5"/>
@@ -7614,28 +7614,28 @@
       <c r="C54" t="s">
         <v>171</v>
       </c>
-      <c r="G54" s="236" t="s">
+      <c r="G54" s="258" t="s">
         <v>180</v>
       </c>
-      <c r="H54" s="236"/>
-      <c r="I54" s="236"/>
-      <c r="J54" s="239" t="s">
+      <c r="H54" s="258"/>
+      <c r="I54" s="258"/>
+      <c r="J54" s="261" t="s">
         <v>184</v>
       </c>
-      <c r="K54" s="239"/>
-      <c r="L54" s="239"/>
-      <c r="M54" s="239"/>
-      <c r="N54" s="240"/>
-      <c r="O54" s="237">
+      <c r="K54" s="261"/>
+      <c r="L54" s="261"/>
+      <c r="M54" s="261"/>
+      <c r="N54" s="262"/>
+      <c r="O54" s="259">
         <f>Sheet1!B14</f>
         <v>0</v>
       </c>
-      <c r="P54" s="238"/>
-      <c r="Q54" s="238"/>
-      <c r="R54" s="167" t="s">
+      <c r="P54" s="260"/>
+      <c r="Q54" s="260"/>
+      <c r="R54" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="S54" s="167"/>
+      <c r="S54" s="146"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
@@ -7751,8 +7751,8 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
-      <c r="T63" s="167"/>
-      <c r="U63" s="167"/>
+      <c r="T63" s="146"/>
+      <c r="U63" s="146"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A64"/>
@@ -7771,8 +7771,8 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
-      <c r="T64" s="167"/>
-      <c r="U64" s="167"/>
+      <c r="T64" s="146"/>
+      <c r="U64" s="146"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A65"/>
@@ -7791,8 +7791,8 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
-      <c r="T65" s="167"/>
-      <c r="U65" s="167"/>
+      <c r="T65" s="146"/>
+      <c r="U65" s="146"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A66" s="19"/>
@@ -7888,42 +7888,124 @@
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="F39:G40"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="N28:O29"/>
-    <mergeCell ref="N31:O32"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="L28:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M32"/>
+    <mergeCell ref="T63:U65"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="J52:N52"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:N53"/>
+    <mergeCell ref="J54:N54"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="K37:U37"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="F28:K29"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="F31:K32"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
     <mergeCell ref="B51:C52"/>
     <mergeCell ref="D51:E52"/>
     <mergeCell ref="P27:U27"/>
@@ -7948,128 +8030,46 @@
     <mergeCell ref="T39:U39"/>
     <mergeCell ref="Q47:R48"/>
     <mergeCell ref="B39:C40"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="F28:K29"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="F31:K32"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="K37:U37"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="T63:U65"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="O51:Q51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="J52:N52"/>
-    <mergeCell ref="O52:Q52"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:N53"/>
-    <mergeCell ref="J54:N54"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="F39:G40"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="N28:O29"/>
+    <mergeCell ref="N31:O32"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="L28:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M32"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;7          </oddHeader>
     <oddFooter>&amp;L様式-010、様式-018の別紙&amp;C2/3&amp;R&amp;F</oddFooter>
@@ -8106,23 +8106,23 @@
       <c r="A1" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="208">
+      <c r="J1" s="168">
         <f>Sheet1!B13</f>
         <v>0</v>
       </c>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="208">
+      <c r="P1" s="168">
         <f>Sheet1!B14</f>
         <v>0</v>
       </c>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
       <c r="T1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8163,19 +8163,19 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="274" t="s">
+      <c r="B7" s="277" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="274"/>
-      <c r="D7" s="274"/>
-      <c r="E7" s="272" t="s">
+      <c r="C7" s="277"/>
+      <c r="D7" s="277"/>
+      <c r="E7" s="279" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="272"/>
-      <c r="G7" s="272" t="s">
+      <c r="F7" s="279"/>
+      <c r="G7" s="279" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="272"/>
+      <c r="H7" s="279"/>
       <c r="J7" s="5" t="s">
         <v>51</v>
       </c>
@@ -8185,16 +8185,16 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="275">
+      <c r="B8" s="278">
         <f>Sheet1!B14+1</f>
         <v>1</v>
       </c>
-      <c r="C8" s="275"/>
-      <c r="D8" s="275"/>
-      <c r="E8" s="236"/>
-      <c r="F8" s="236"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="278"/>
+      <c r="E8" s="258"/>
+      <c r="F8" s="258"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
       <c r="J8" s="5" t="s">
         <v>9</v>
       </c>
@@ -8204,13 +8204,13 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
-      <c r="B9" s="275"/>
-      <c r="C9" s="275"/>
-      <c r="D9" s="275"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
+      <c r="B9" s="278"/>
+      <c r="C9" s="278"/>
+      <c r="D9" s="278"/>
+      <c r="E9" s="258"/>
+      <c r="F9" s="258"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
       <c r="J9" s="5" t="s">
         <v>51</v>
       </c>
@@ -8240,72 +8240,72 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="28"/>
-      <c r="C11" s="245" t="s">
+      <c r="C11" s="237" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="246"/>
-      <c r="E11" s="246"/>
-      <c r="F11" s="246"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246"/>
-      <c r="I11" s="246"/>
-      <c r="J11" s="261"/>
-      <c r="K11" s="243" t="s">
+      <c r="D11" s="238"/>
+      <c r="E11" s="238"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="238"/>
+      <c r="H11" s="238"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="239"/>
+      <c r="K11" s="257" t="s">
         <v>97</v>
       </c>
-      <c r="L11" s="243"/>
-      <c r="M11" s="243"/>
-      <c r="N11" s="243"/>
-      <c r="O11" s="243"/>
-      <c r="P11" s="243"/>
-      <c r="Q11" s="243"/>
-      <c r="R11" s="243"/>
-      <c r="S11" s="172" t="s">
+      <c r="L11" s="257"/>
+      <c r="M11" s="257"/>
+      <c r="N11" s="257"/>
+      <c r="O11" s="257"/>
+      <c r="P11" s="257"/>
+      <c r="Q11" s="257"/>
+      <c r="R11" s="257"/>
+      <c r="S11" s="208" t="s">
         <v>72</v>
       </c>
-      <c r="T11" s="295"/>
+      <c r="T11" s="270"/>
       <c r="U11" s="29" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
-      <c r="B12" s="277">
+      <c r="B12" s="280">
         <v>1</v>
       </c>
-      <c r="C12" s="280" t="s">
+      <c r="C12" s="282" t="s">
         <v>207</v>
       </c>
-      <c r="D12" s="281"/>
-      <c r="E12" s="265">
+      <c r="D12" s="283"/>
+      <c r="E12" s="281">
         <f>Sheet1!B14</f>
         <v>0</v>
       </c>
-      <c r="F12" s="265"/>
-      <c r="G12" s="265"/>
+      <c r="F12" s="281"/>
+      <c r="G12" s="281"/>
       <c r="H12" s="24"/>
-      <c r="K12" s="236" t="s">
+      <c r="K12" s="258" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="236"/>
-      <c r="M12" s="236"/>
-      <c r="N12" s="236"/>
-      <c r="O12" s="236"/>
-      <c r="P12" s="236"/>
-      <c r="Q12" s="236"/>
-      <c r="R12" s="236"/>
-      <c r="S12" s="284">
+      <c r="L12" s="258"/>
+      <c r="M12" s="258"/>
+      <c r="N12" s="258"/>
+      <c r="O12" s="258"/>
+      <c r="P12" s="258"/>
+      <c r="Q12" s="258"/>
+      <c r="R12" s="258"/>
+      <c r="S12" s="271">
         <f>Sheet1!B14</f>
         <v>0</v>
       </c>
-      <c r="T12" s="285"/>
+      <c r="T12" s="272"/>
       <c r="U12" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
-      <c r="B13" s="277"/>
+      <c r="B13" s="280"/>
       <c r="C13" s="84" t="s">
         <v>208</v>
       </c>
@@ -8316,28 +8316,28 @@
       <c r="H13" s="85"/>
       <c r="I13" s="85"/>
       <c r="J13" s="86"/>
-      <c r="K13" s="236" t="s">
+      <c r="K13" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="236"/>
-      <c r="M13" s="236"/>
-      <c r="N13" s="236"/>
-      <c r="O13" s="236"/>
-      <c r="P13" s="236"/>
-      <c r="Q13" s="236"/>
-      <c r="R13" s="236"/>
-      <c r="S13" s="278">
+      <c r="L13" s="258"/>
+      <c r="M13" s="258"/>
+      <c r="N13" s="258"/>
+      <c r="O13" s="258"/>
+      <c r="P13" s="258"/>
+      <c r="Q13" s="258"/>
+      <c r="R13" s="258"/>
+      <c r="S13" s="268">
         <f>Sheet1!C10</f>
         <v>0</v>
       </c>
-      <c r="T13" s="279"/>
+      <c r="T13" s="269"/>
       <c r="U13" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
-      <c r="B14" s="277"/>
+      <c r="B14" s="280"/>
       <c r="C14" s="84"/>
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
@@ -8346,28 +8346,28 @@
       <c r="H14" s="85"/>
       <c r="I14" s="85"/>
       <c r="J14" s="86"/>
-      <c r="K14" s="236" t="s">
+      <c r="K14" s="258" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="236"/>
-      <c r="M14" s="236"/>
-      <c r="N14" s="236"/>
-      <c r="O14" s="236"/>
-      <c r="P14" s="236"/>
-      <c r="Q14" s="236"/>
-      <c r="R14" s="236"/>
-      <c r="S14" s="278">
+      <c r="L14" s="258"/>
+      <c r="M14" s="258"/>
+      <c r="N14" s="258"/>
+      <c r="O14" s="258"/>
+      <c r="P14" s="258"/>
+      <c r="Q14" s="258"/>
+      <c r="R14" s="258"/>
+      <c r="S14" s="268">
         <f>Sheet1!C10</f>
         <v>0</v>
       </c>
-      <c r="T14" s="279"/>
+      <c r="T14" s="269"/>
       <c r="U14" s="142" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
-      <c r="B15" s="277"/>
+      <c r="B15" s="280"/>
       <c r="C15" s="84"/>
       <c r="D15" s="85"/>
       <c r="E15" s="85"/>
@@ -8376,62 +8376,62 @@
       <c r="H15" s="85"/>
       <c r="I15" s="85"/>
       <c r="J15" s="86"/>
-      <c r="K15" s="206" t="s">
+      <c r="K15" s="166" t="s">
         <v>292</v>
       </c>
-      <c r="L15" s="207"/>
-      <c r="M15" s="207"/>
-      <c r="N15" s="207"/>
-      <c r="O15" s="207"/>
-      <c r="P15" s="207"/>
-      <c r="Q15" s="207"/>
-      <c r="R15" s="288"/>
-      <c r="S15" s="289"/>
-      <c r="T15" s="290"/>
+      <c r="L15" s="167"/>
+      <c r="M15" s="167"/>
+      <c r="N15" s="167"/>
+      <c r="O15" s="167"/>
+      <c r="P15" s="167"/>
+      <c r="Q15" s="167"/>
+      <c r="R15" s="267"/>
+      <c r="S15" s="265"/>
+      <c r="T15" s="266"/>
       <c r="U15" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="B16" s="277">
+      <c r="B16" s="280">
         <v>2</v>
       </c>
-      <c r="C16" s="282" t="s">
+      <c r="C16" s="284" t="s">
         <v>209</v>
       </c>
-      <c r="D16" s="283"/>
-      <c r="E16" s="283"/>
-      <c r="F16" s="283"/>
-      <c r="G16" s="265">
+      <c r="D16" s="285"/>
+      <c r="E16" s="285"/>
+      <c r="F16" s="285"/>
+      <c r="G16" s="281">
         <f>Sheet1!B14</f>
         <v>0</v>
       </c>
-      <c r="H16" s="265"/>
-      <c r="I16" s="265"/>
+      <c r="H16" s="281"/>
+      <c r="I16" s="281"/>
       <c r="J16" s="83"/>
-      <c r="K16" s="236" t="s">
+      <c r="K16" s="258" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="236"/>
-      <c r="M16" s="236"/>
-      <c r="N16" s="236"/>
-      <c r="O16" s="236"/>
-      <c r="P16" s="236"/>
-      <c r="Q16" s="236"/>
-      <c r="R16" s="236"/>
-      <c r="S16" s="284">
+      <c r="L16" s="258"/>
+      <c r="M16" s="258"/>
+      <c r="N16" s="258"/>
+      <c r="O16" s="258"/>
+      <c r="P16" s="258"/>
+      <c r="Q16" s="258"/>
+      <c r="R16" s="258"/>
+      <c r="S16" s="271">
         <f>Sheet1!B14</f>
         <v>0</v>
       </c>
-      <c r="T16" s="285"/>
+      <c r="T16" s="272"/>
       <c r="U16" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
-      <c r="B17" s="277"/>
+      <c r="B17" s="280"/>
       <c r="C17" s="84"/>
       <c r="D17" s="85"/>
       <c r="E17" s="85"/>
@@ -8440,16 +8440,16 @@
       <c r="H17" s="85"/>
       <c r="I17" s="85"/>
       <c r="J17" s="86"/>
-      <c r="K17" s="236" t="s">
+      <c r="K17" s="258" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="236"/>
-      <c r="M17" s="236"/>
-      <c r="N17" s="236"/>
-      <c r="O17" s="236"/>
-      <c r="P17" s="236"/>
-      <c r="Q17" s="236"/>
-      <c r="R17" s="236"/>
+      <c r="L17" s="258"/>
+      <c r="M17" s="258"/>
+      <c r="N17" s="258"/>
+      <c r="O17" s="258"/>
+      <c r="P17" s="258"/>
+      <c r="Q17" s="258"/>
+      <c r="R17" s="258"/>
       <c r="S17" s="286">
         <f>Sheet1!B19</f>
         <v>0</v>
@@ -8461,7 +8461,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
-      <c r="B18" s="277"/>
+      <c r="B18" s="280"/>
       <c r="C18" s="84"/>
       <c r="D18" s="85"/>
       <c r="E18" s="85"/>
@@ -8470,62 +8470,62 @@
       <c r="H18" s="85"/>
       <c r="I18" s="85"/>
       <c r="J18" s="86"/>
-      <c r="K18" s="236" t="s">
+      <c r="K18" s="258" t="s">
         <v>296</v>
       </c>
-      <c r="L18" s="236"/>
-      <c r="M18" s="236"/>
-      <c r="N18" s="236"/>
-      <c r="O18" s="236"/>
-      <c r="P18" s="236"/>
-      <c r="Q18" s="236"/>
-      <c r="R18" s="236"/>
-      <c r="S18" s="289"/>
-      <c r="T18" s="290"/>
+      <c r="L18" s="258"/>
+      <c r="M18" s="258"/>
+      <c r="N18" s="258"/>
+      <c r="O18" s="258"/>
+      <c r="P18" s="258"/>
+      <c r="Q18" s="258"/>
+      <c r="R18" s="258"/>
+      <c r="S18" s="265"/>
+      <c r="T18" s="266"/>
       <c r="U18" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="B19" s="277">
+      <c r="B19" s="280">
         <v>3</v>
       </c>
-      <c r="C19" s="282" t="s">
+      <c r="C19" s="284" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="283"/>
-      <c r="E19" s="283"/>
-      <c r="F19" s="283"/>
-      <c r="G19" s="283"/>
-      <c r="H19" s="265">
+      <c r="D19" s="285"/>
+      <c r="E19" s="285"/>
+      <c r="F19" s="285"/>
+      <c r="G19" s="285"/>
+      <c r="H19" s="281">
         <f>Sheet1!B14</f>
         <v>0</v>
       </c>
-      <c r="I19" s="265"/>
-      <c r="J19" s="265"/>
-      <c r="K19" s="236" t="s">
+      <c r="I19" s="281"/>
+      <c r="J19" s="281"/>
+      <c r="K19" s="258" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="236"/>
-      <c r="M19" s="236"/>
-      <c r="N19" s="236"/>
-      <c r="O19" s="236"/>
-      <c r="P19" s="236"/>
-      <c r="Q19" s="236"/>
-      <c r="R19" s="236"/>
-      <c r="S19" s="284">
+      <c r="L19" s="258"/>
+      <c r="M19" s="258"/>
+      <c r="N19" s="258"/>
+      <c r="O19" s="258"/>
+      <c r="P19" s="258"/>
+      <c r="Q19" s="258"/>
+      <c r="R19" s="258"/>
+      <c r="S19" s="271">
         <f>Sheet1!B14</f>
         <v>0</v>
       </c>
-      <c r="T19" s="285"/>
+      <c r="T19" s="272"/>
       <c r="U19" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
-      <c r="B20" s="277"/>
+      <c r="B20" s="280"/>
       <c r="C20" s="87"/>
       <c r="D20" s="88"/>
       <c r="E20" s="88"/>
@@ -8534,28 +8534,28 @@
       <c r="H20" s="88"/>
       <c r="I20" s="88"/>
       <c r="J20" s="89"/>
-      <c r="K20" s="236" t="s">
+      <c r="K20" s="258" t="s">
         <v>63</v>
       </c>
-      <c r="L20" s="236"/>
-      <c r="M20" s="236"/>
-      <c r="N20" s="236"/>
-      <c r="O20" s="236"/>
-      <c r="P20" s="236"/>
-      <c r="Q20" s="236"/>
-      <c r="R20" s="236"/>
-      <c r="S20" s="292">
+      <c r="L20" s="258"/>
+      <c r="M20" s="258"/>
+      <c r="N20" s="258"/>
+      <c r="O20" s="258"/>
+      <c r="P20" s="258"/>
+      <c r="Q20" s="258"/>
+      <c r="R20" s="258"/>
+      <c r="S20" s="274">
         <f>Sheet1!B21</f>
         <v>0</v>
       </c>
-      <c r="T20" s="293"/>
+      <c r="T20" s="275"/>
       <c r="U20" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
-      <c r="B21" s="277"/>
+      <c r="B21" s="280"/>
       <c r="C21" s="87"/>
       <c r="D21" s="88"/>
       <c r="E21" s="88"/>
@@ -8564,28 +8564,28 @@
       <c r="H21" s="88"/>
       <c r="I21" s="88"/>
       <c r="J21" s="89"/>
-      <c r="K21" s="236" t="s">
+      <c r="K21" s="258" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="236"/>
-      <c r="M21" s="236"/>
-      <c r="N21" s="236"/>
-      <c r="O21" s="236"/>
-      <c r="P21" s="236"/>
-      <c r="Q21" s="236"/>
-      <c r="R21" s="236"/>
-      <c r="S21" s="278">
+      <c r="L21" s="258"/>
+      <c r="M21" s="258"/>
+      <c r="N21" s="258"/>
+      <c r="O21" s="258"/>
+      <c r="P21" s="258"/>
+      <c r="Q21" s="258"/>
+      <c r="R21" s="258"/>
+      <c r="S21" s="268">
         <f>Sheet1!F10</f>
         <v>0</v>
       </c>
-      <c r="T21" s="279"/>
+      <c r="T21" s="269"/>
       <c r="U21" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
-      <c r="B22" s="277"/>
+      <c r="B22" s="280"/>
       <c r="C22" s="87"/>
       <c r="D22" s="88"/>
       <c r="E22" s="88"/>
@@ -8594,25 +8594,25 @@
       <c r="H22" s="88"/>
       <c r="I22" s="88"/>
       <c r="J22" s="89"/>
-      <c r="K22" s="291" t="s">
+      <c r="K22" s="276" t="s">
         <v>82</v>
       </c>
-      <c r="L22" s="291"/>
-      <c r="M22" s="291"/>
-      <c r="N22" s="291"/>
-      <c r="O22" s="291"/>
-      <c r="P22" s="291"/>
-      <c r="Q22" s="291"/>
-      <c r="R22" s="291"/>
-      <c r="S22" s="289"/>
-      <c r="T22" s="290"/>
+      <c r="L22" s="276"/>
+      <c r="M22" s="276"/>
+      <c r="N22" s="276"/>
+      <c r="O22" s="276"/>
+      <c r="P22" s="276"/>
+      <c r="Q22" s="276"/>
+      <c r="R22" s="276"/>
+      <c r="S22" s="265"/>
+      <c r="T22" s="266"/>
       <c r="U22" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
-      <c r="B23" s="277"/>
+      <c r="B23" s="280"/>
       <c r="C23" s="87"/>
       <c r="D23" s="88"/>
       <c r="E23" s="88"/>
@@ -8621,62 +8621,62 @@
       <c r="H23" s="88"/>
       <c r="I23" s="88"/>
       <c r="J23" s="89"/>
-      <c r="K23" s="236" t="s">
+      <c r="K23" s="258" t="s">
         <v>296</v>
       </c>
-      <c r="L23" s="236"/>
-      <c r="M23" s="236"/>
-      <c r="N23" s="236"/>
-      <c r="O23" s="236"/>
-      <c r="P23" s="236"/>
-      <c r="Q23" s="236"/>
-      <c r="R23" s="236"/>
-      <c r="S23" s="289"/>
-      <c r="T23" s="290"/>
+      <c r="L23" s="258"/>
+      <c r="M23" s="258"/>
+      <c r="N23" s="258"/>
+      <c r="O23" s="258"/>
+      <c r="P23" s="258"/>
+      <c r="Q23" s="258"/>
+      <c r="R23" s="258"/>
+      <c r="S23" s="265"/>
+      <c r="T23" s="266"/>
       <c r="U23" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
-      <c r="B24" s="277">
+      <c r="B24" s="280">
         <v>4</v>
       </c>
-      <c r="C24" s="266" t="s">
+      <c r="C24" s="288" t="s">
         <v>211</v>
       </c>
-      <c r="D24" s="267"/>
-      <c r="E24" s="267"/>
-      <c r="F24" s="265">
+      <c r="D24" s="289"/>
+      <c r="E24" s="289"/>
+      <c r="F24" s="281">
         <f>Sheet1!B14</f>
         <v>0</v>
       </c>
-      <c r="G24" s="265"/>
-      <c r="H24" s="265"/>
+      <c r="G24" s="281"/>
+      <c r="H24" s="281"/>
       <c r="I24" s="82"/>
       <c r="J24" s="83"/>
-      <c r="K24" s="236" t="s">
+      <c r="K24" s="258" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="236"/>
-      <c r="M24" s="236"/>
-      <c r="N24" s="236"/>
-      <c r="O24" s="236"/>
-      <c r="P24" s="236"/>
-      <c r="Q24" s="236"/>
-      <c r="R24" s="236"/>
-      <c r="S24" s="284">
+      <c r="L24" s="258"/>
+      <c r="M24" s="258"/>
+      <c r="N24" s="258"/>
+      <c r="O24" s="258"/>
+      <c r="P24" s="258"/>
+      <c r="Q24" s="258"/>
+      <c r="R24" s="258"/>
+      <c r="S24" s="271">
         <f>Sheet1!B14</f>
         <v>0</v>
       </c>
-      <c r="T24" s="285"/>
+      <c r="T24" s="272"/>
       <c r="U24" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
-      <c r="B25" s="277"/>
+      <c r="B25" s="280"/>
       <c r="C25" s="84"/>
       <c r="D25" s="85"/>
       <c r="E25" s="85"/>
@@ -8685,55 +8685,55 @@
       <c r="H25" s="85"/>
       <c r="I25" s="85"/>
       <c r="J25" s="86"/>
-      <c r="K25" s="236" t="s">
+      <c r="K25" s="258" t="s">
         <v>78</v>
       </c>
-      <c r="L25" s="236"/>
-      <c r="M25" s="236"/>
-      <c r="N25" s="236"/>
-      <c r="O25" s="236"/>
-      <c r="P25" s="236"/>
-      <c r="Q25" s="236"/>
-      <c r="R25" s="236"/>
-      <c r="S25" s="278">
+      <c r="L25" s="258"/>
+      <c r="M25" s="258"/>
+      <c r="N25" s="258"/>
+      <c r="O25" s="258"/>
+      <c r="P25" s="258"/>
+      <c r="Q25" s="258"/>
+      <c r="R25" s="258"/>
+      <c r="S25" s="268">
         <f>Sheet1!F10</f>
         <v>0</v>
       </c>
-      <c r="T25" s="279"/>
+      <c r="T25" s="269"/>
       <c r="U25" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
-      <c r="B26" s="277"/>
+      <c r="B26" s="280"/>
       <c r="C26" s="84"/>
       <c r="D26" s="85"/>
       <c r="E26" s="85"/>
       <c r="I26" s="85"/>
       <c r="J26" s="86"/>
-      <c r="K26" s="294" t="s">
+      <c r="K26" s="273" t="s">
         <v>79</v>
       </c>
-      <c r="L26" s="236"/>
-      <c r="M26" s="236"/>
-      <c r="N26" s="236"/>
-      <c r="O26" s="236"/>
-      <c r="P26" s="236"/>
-      <c r="Q26" s="236"/>
-      <c r="R26" s="236"/>
-      <c r="S26" s="278">
+      <c r="L26" s="258"/>
+      <c r="M26" s="258"/>
+      <c r="N26" s="258"/>
+      <c r="O26" s="258"/>
+      <c r="P26" s="258"/>
+      <c r="Q26" s="258"/>
+      <c r="R26" s="258"/>
+      <c r="S26" s="268">
         <f>Sheet1!C10</f>
         <v>0</v>
       </c>
-      <c r="T26" s="279"/>
+      <c r="T26" s="269"/>
       <c r="U26" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
-      <c r="B27" s="277"/>
+      <c r="B27" s="280"/>
       <c r="C27" s="84"/>
       <c r="D27" s="85"/>
       <c r="E27" s="85"/>
@@ -8742,28 +8742,28 @@
       <c r="H27" s="85"/>
       <c r="I27" s="85"/>
       <c r="J27" s="86"/>
-      <c r="K27" s="294" t="s">
+      <c r="K27" s="273" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="236"/>
-      <c r="M27" s="236"/>
-      <c r="N27" s="236"/>
-      <c r="O27" s="236"/>
-      <c r="P27" s="236"/>
-      <c r="Q27" s="236"/>
-      <c r="R27" s="236"/>
-      <c r="S27" s="292">
+      <c r="L27" s="258"/>
+      <c r="M27" s="258"/>
+      <c r="N27" s="258"/>
+      <c r="O27" s="258"/>
+      <c r="P27" s="258"/>
+      <c r="Q27" s="258"/>
+      <c r="R27" s="258"/>
+      <c r="S27" s="274">
         <f>Sheet1!B20</f>
         <v>0</v>
       </c>
-      <c r="T27" s="293"/>
+      <c r="T27" s="275"/>
       <c r="U27" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
-      <c r="B28" s="277"/>
+      <c r="B28" s="280"/>
       <c r="C28" s="90"/>
       <c r="D28" s="91"/>
       <c r="E28" s="91"/>
@@ -8772,18 +8772,18 @@
       <c r="H28" s="91"/>
       <c r="I28" s="91"/>
       <c r="J28" s="92"/>
-      <c r="K28" s="236" t="s">
+      <c r="K28" s="258" t="s">
         <v>296</v>
       </c>
-      <c r="L28" s="236"/>
-      <c r="M28" s="236"/>
-      <c r="N28" s="236"/>
-      <c r="O28" s="236"/>
-      <c r="P28" s="236"/>
-      <c r="Q28" s="236"/>
-      <c r="R28" s="236"/>
-      <c r="S28" s="289"/>
-      <c r="T28" s="290"/>
+      <c r="L28" s="258"/>
+      <c r="M28" s="258"/>
+      <c r="N28" s="258"/>
+      <c r="O28" s="258"/>
+      <c r="P28" s="258"/>
+      <c r="Q28" s="258"/>
+      <c r="R28" s="258"/>
+      <c r="S28" s="265"/>
+      <c r="T28" s="266"/>
       <c r="U28" s="33" t="s">
         <v>9</v>
       </c>
@@ -8843,19 +8843,19 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
-      <c r="B34" s="274" t="s">
+      <c r="B34" s="277" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="274"/>
-      <c r="D34" s="274"/>
-      <c r="E34" s="272" t="s">
+      <c r="C34" s="277"/>
+      <c r="D34" s="277"/>
+      <c r="E34" s="279" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="272"/>
-      <c r="G34" s="272" t="s">
+      <c r="F34" s="279"/>
+      <c r="G34" s="279" t="s">
         <v>54</v>
       </c>
-      <c r="H34" s="272"/>
+      <c r="H34" s="279"/>
       <c r="J34" s="5" t="s">
         <v>51</v>
       </c>
@@ -8867,16 +8867,16 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
-      <c r="B35" s="275">
+      <c r="B35" s="278">
         <f>Sheet1!B14+2</f>
         <v>2</v>
       </c>
-      <c r="C35" s="275"/>
-      <c r="D35" s="275"/>
-      <c r="E35" s="236"/>
-      <c r="F35" s="236"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="167"/>
+      <c r="C35" s="278"/>
+      <c r="D35" s="278"/>
+      <c r="E35" s="258"/>
+      <c r="F35" s="258"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
       <c r="J35" s="5" t="s">
         <v>51</v>
       </c>
@@ -8888,87 +8888,87 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
-      <c r="B36" s="275"/>
-      <c r="C36" s="276"/>
-      <c r="D36" s="276"/>
-      <c r="E36" s="271"/>
-      <c r="F36" s="271"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="168"/>
+      <c r="B36" s="278"/>
+      <c r="C36" s="295"/>
+      <c r="D36" s="295"/>
+      <c r="E36" s="293"/>
+      <c r="F36" s="293"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="56"/>
-      <c r="C37" s="245" t="s">
+      <c r="C37" s="237" t="s">
         <v>212</v>
       </c>
-      <c r="D37" s="246"/>
-      <c r="E37" s="246"/>
-      <c r="F37" s="246"/>
-      <c r="G37" s="246"/>
-      <c r="H37" s="246"/>
-      <c r="I37" s="246"/>
-      <c r="J37" s="261"/>
-      <c r="K37" s="261" t="s">
+      <c r="D37" s="238"/>
+      <c r="E37" s="238"/>
+      <c r="F37" s="238"/>
+      <c r="G37" s="238"/>
+      <c r="H37" s="238"/>
+      <c r="I37" s="238"/>
+      <c r="J37" s="239"/>
+      <c r="K37" s="239" t="s">
         <v>97</v>
       </c>
-      <c r="L37" s="243"/>
-      <c r="M37" s="243"/>
-      <c r="N37" s="243"/>
-      <c r="O37" s="243"/>
-      <c r="P37" s="243"/>
-      <c r="Q37" s="243"/>
-      <c r="R37" s="243"/>
-      <c r="S37" s="172" t="s">
+      <c r="L37" s="257"/>
+      <c r="M37" s="257"/>
+      <c r="N37" s="257"/>
+      <c r="O37" s="257"/>
+      <c r="P37" s="257"/>
+      <c r="Q37" s="257"/>
+      <c r="R37" s="257"/>
+      <c r="S37" s="208" t="s">
         <v>72</v>
       </c>
-      <c r="T37" s="295"/>
+      <c r="T37" s="270"/>
       <c r="U37" s="29" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
-      <c r="B38" s="273">
+      <c r="B38" s="294">
         <v>1</v>
       </c>
-      <c r="C38" s="268" t="s">
+      <c r="C38" s="290" t="s">
         <v>213</v>
       </c>
-      <c r="D38" s="269"/>
-      <c r="E38" s="270">
+      <c r="D38" s="291"/>
+      <c r="E38" s="292">
         <f>Sheet1!B14</f>
         <v>0</v>
       </c>
-      <c r="F38" s="270"/>
-      <c r="G38" s="270"/>
+      <c r="F38" s="292"/>
+      <c r="G38" s="292"/>
       <c r="H38" s="82"/>
       <c r="I38" s="82"/>
       <c r="J38" s="83"/>
-      <c r="K38" s="288" t="s">
+      <c r="K38" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="L38" s="236"/>
-      <c r="M38" s="236"/>
-      <c r="N38" s="236"/>
-      <c r="O38" s="236"/>
-      <c r="P38" s="236"/>
-      <c r="Q38" s="236"/>
-      <c r="R38" s="236"/>
-      <c r="S38" s="284">
+      <c r="L38" s="258"/>
+      <c r="M38" s="258"/>
+      <c r="N38" s="258"/>
+      <c r="O38" s="258"/>
+      <c r="P38" s="258"/>
+      <c r="Q38" s="258"/>
+      <c r="R38" s="258"/>
+      <c r="S38" s="271">
         <f>Sheet1!B14</f>
         <v>0</v>
       </c>
-      <c r="T38" s="285"/>
+      <c r="T38" s="272"/>
       <c r="U38" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
-      <c r="B39" s="273"/>
+      <c r="B39" s="294"/>
       <c r="C39" s="84"/>
       <c r="D39" s="85"/>
       <c r="E39" s="85"/>
@@ -8977,28 +8977,28 @@
       <c r="H39" s="85"/>
       <c r="I39" s="85"/>
       <c r="J39" s="86"/>
-      <c r="K39" s="288" t="s">
+      <c r="K39" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="L39" s="236"/>
-      <c r="M39" s="236"/>
-      <c r="N39" s="236"/>
-      <c r="O39" s="236"/>
-      <c r="P39" s="236"/>
-      <c r="Q39" s="236"/>
-      <c r="R39" s="236"/>
-      <c r="S39" s="278">
+      <c r="L39" s="258"/>
+      <c r="M39" s="258"/>
+      <c r="N39" s="258"/>
+      <c r="O39" s="258"/>
+      <c r="P39" s="258"/>
+      <c r="Q39" s="258"/>
+      <c r="R39" s="258"/>
+      <c r="S39" s="268">
         <f>Sheet1!C10</f>
         <v>0</v>
       </c>
-      <c r="T39" s="279"/>
+      <c r="T39" s="269"/>
       <c r="U39" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
-      <c r="B40" s="273"/>
+      <c r="B40" s="294"/>
       <c r="C40" s="90"/>
       <c r="D40" s="91"/>
       <c r="E40" s="91"/>
@@ -9007,18 +9007,18 @@
       <c r="H40" s="91"/>
       <c r="I40" s="91"/>
       <c r="J40" s="92"/>
-      <c r="K40" s="288" t="s">
+      <c r="K40" s="267" t="s">
         <v>58</v>
       </c>
-      <c r="L40" s="236"/>
-      <c r="M40" s="236"/>
-      <c r="N40" s="236"/>
-      <c r="O40" s="236"/>
-      <c r="P40" s="236"/>
-      <c r="Q40" s="236"/>
-      <c r="R40" s="236"/>
-      <c r="S40" s="289"/>
-      <c r="T40" s="290"/>
+      <c r="L40" s="258"/>
+      <c r="M40" s="258"/>
+      <c r="N40" s="258"/>
+      <c r="O40" s="258"/>
+      <c r="P40" s="258"/>
+      <c r="Q40" s="258"/>
+      <c r="R40" s="258"/>
+      <c r="S40" s="265"/>
+      <c r="T40" s="266"/>
       <c r="U40" s="20" t="s">
         <v>51</v>
       </c>
@@ -9058,33 +9058,33 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
-      <c r="B44" s="272" t="s">
+      <c r="B44" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="272"/>
-      <c r="D44" s="272" t="s">
+      <c r="C44" s="279"/>
+      <c r="D44" s="279" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="272"/>
+      <c r="E44" s="279"/>
       <c r="G44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
-      <c r="B45" s="236"/>
-      <c r="C45" s="236"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="167"/>
+      <c r="B45" s="258"/>
+      <c r="C45" s="258"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
-      <c r="B46" s="236"/>
-      <c r="C46" s="236"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
+      <c r="B46" s="258"/>
+      <c r="C46" s="258"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="146"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
     </row>
@@ -9599,16 +9599,60 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="K11:R11"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="D45:E46"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C46"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="K40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="K37:R37"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="K38:R38"/>
+    <mergeCell ref="K27:R27"/>
     <mergeCell ref="S39:T39"/>
     <mergeCell ref="K24:R24"/>
     <mergeCell ref="P1:S1"/>
@@ -9625,64 +9669,20 @@
     <mergeCell ref="K28:R28"/>
     <mergeCell ref="S28:T28"/>
     <mergeCell ref="S37:T37"/>
-    <mergeCell ref="K40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="K37:R37"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="K38:R38"/>
-    <mergeCell ref="K27:R27"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="D45:E46"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C46"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="K12:R12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;7          </oddHeader>
     <oddFooter>&amp;L様式-010、様式-018の別紙&amp;C3/3&amp;R&amp;F</oddFooter>
@@ -9697,7 +9697,7 @@
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -10031,7 +10031,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;F</oddFooter>
   </headerFooter>
